--- a/seed/tests/data/portfolio-manager-sample.xlsx
+++ b/seed/tests/data/portfolio-manager-sample.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6740" uniqueCount="2128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6740" uniqueCount="2131">
   <si>
     <t>Property Id</t>
   </si>
@@ -4886,1531 +4886,1540 @@
     <t>UBID</t>
   </si>
   <si>
-    <t>https://ubid.org/0904-5974</t>
-  </si>
-  <si>
-    <t>https://ubid.org/61734-202</t>
-  </si>
-  <si>
-    <t>https://ubid.org/16729-115</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68927-3492</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57955-6012</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60505-6110</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50474-700</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0781-3240</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0363-1299</t>
-  </si>
-  <si>
-    <t>https://ubid.org/41250-020</t>
-  </si>
-  <si>
-    <t>https://ubid.org/61515-101</t>
-  </si>
-  <si>
-    <t>https://ubid.org/16714-419</t>
-  </si>
-  <si>
-    <t>https://ubid.org/62175-128</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50988-271</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49288-0899</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-3097</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0781-3010</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0259-2102</t>
-  </si>
-  <si>
-    <t>https://ubid.org/62756-538</t>
-  </si>
-  <si>
-    <t>https://ubid.org/30142-112</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36800-143</t>
-  </si>
-  <si>
-    <t>https://ubid.org/66288-6100</t>
-  </si>
-  <si>
-    <t>https://ubid.org/21695-277</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42254-213</t>
-  </si>
-  <si>
-    <t>https://ubid.org/11673-449</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0143-9710</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-4325</t>
-  </si>
-  <si>
-    <t>https://ubid.org/43269-809</t>
-  </si>
-  <si>
-    <t>https://ubid.org/16590-187</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59779-391</t>
-  </si>
-  <si>
-    <t>https://ubid.org/10056-541</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0121-1762</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42221-0008</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52380-1274</t>
-  </si>
-  <si>
-    <t>https://ubid.org/51386-710</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68084-486</t>
-  </si>
-  <si>
-    <t>https://ubid.org/10742-8510</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36800-812</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42291-161</t>
-  </si>
-  <si>
-    <t>https://ubid.org/43419-513</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0143-2037</t>
-  </si>
-  <si>
-    <t>https://ubid.org/21695-771</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36800-175</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55714-4408</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49349-895</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55714-2303</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42494-119</t>
-  </si>
-  <si>
-    <t>https://ubid.org/16590-280</t>
-  </si>
-  <si>
-    <t>https://ubid.org/41163-160</t>
-  </si>
-  <si>
-    <t>https://ubid.org/33261-361</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68462-245</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36800-393</t>
-  </si>
-  <si>
-    <t>https://ubid.org/11559-023</t>
-  </si>
-  <si>
-    <t>https://ubid.org/12634-120</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63629-2844</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49288-0484</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55301-852</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-5977</t>
-  </si>
-  <si>
-    <t>https://ubid.org/10596-341</t>
-  </si>
-  <si>
-    <t>https://ubid.org/45802-176</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52389-178</t>
-  </si>
-  <si>
-    <t>https://ubid.org/43063-272</t>
-  </si>
-  <si>
-    <t>https://ubid.org/30142-123</t>
-  </si>
-  <si>
-    <t>https://ubid.org/65977-5038</t>
-  </si>
-  <si>
-    <t>https://ubid.org/12546-642</t>
-  </si>
-  <si>
-    <t>https://ubid.org/65966-009</t>
-  </si>
-  <si>
-    <t>https://ubid.org/61957-1440</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0641-0948</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76420-795</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68012-309</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53773-001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60913-031</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0268-0886</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-0451</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76237-314</t>
-  </si>
-  <si>
-    <t>https://ubid.org/11822-0255</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63323-479</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0173-0479</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59640-158</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52584-201</t>
-  </si>
-  <si>
-    <t>https://ubid.org/11673-002</t>
-  </si>
-  <si>
-    <t>https://ubid.org/70253-660</t>
-  </si>
-  <si>
-    <t>https://ubid.org/25021-404</t>
-  </si>
-  <si>
-    <t>https://ubid.org/31722-333</t>
-  </si>
-  <si>
-    <t>https://ubid.org/45963-345</t>
-  </si>
-  <si>
-    <t>https://ubid.org/11673-367</t>
-  </si>
-  <si>
-    <t>https://ubid.org/61995-2329</t>
-  </si>
-  <si>
-    <t>https://ubid.org/67751-131</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55301-001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68016-018</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-1543</t>
-  </si>
-  <si>
-    <t>https://ubid.org/66758-048</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55154-1490</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60512-7101</t>
-  </si>
-  <si>
-    <t>https://ubid.org/24385-405</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57520-0588</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-5121</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60512-1035</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-5773</t>
-  </si>
-  <si>
-    <t>https://ubid.org/33992-1201</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60681-1401</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52033-001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63843-487</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0054-4741</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63304-211</t>
-  </si>
-  <si>
-    <t>https://ubid.org/30142-007</t>
-  </si>
-  <si>
-    <t>https://ubid.org/41520-552</t>
-  </si>
-  <si>
-    <t>https://ubid.org/11584-1100</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0113-0906</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60512-9150</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0615-7631</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53499-0339</t>
-  </si>
-  <si>
-    <t>https://ubid.org/62011-0197</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55714-1103</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42508-161</t>
-  </si>
-  <si>
-    <t>https://ubid.org/65923-704</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53104-0100</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76478-711</t>
-  </si>
-  <si>
-    <t>https://ubid.org/30142-920</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0904-5811</t>
-  </si>
-  <si>
-    <t>https://ubid.org/24236-466</t>
-  </si>
-  <si>
-    <t>https://ubid.org/61995-0315</t>
-  </si>
-  <si>
-    <t>https://ubid.org/33261-076</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63824-482</t>
-  </si>
-  <si>
-    <t>https://ubid.org/69097-157</t>
-  </si>
-  <si>
-    <t>https://ubid.org/11673-855</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0115-7033</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76354-019</t>
-  </si>
-  <si>
-    <t>https://ubid.org/67046-926</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-1368</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63354-990</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0268-6779</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53729-0001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/65841-628</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63629-3765</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-5364</t>
-  </si>
-  <si>
-    <t>https://ubid.org/51655-926</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42002-507</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0378-7111</t>
-  </si>
-  <si>
-    <t>https://ubid.org/67938-1393</t>
-  </si>
-  <si>
-    <t>https://ubid.org/24909-116</t>
-  </si>
-  <si>
-    <t>https://ubid.org/37000-785</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0703-0045</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-2063</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57337-043</t>
-  </si>
-  <si>
-    <t>https://ubid.org/41250-647</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49884-117</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76095-101</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-4705</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-5952</t>
-  </si>
-  <si>
-    <t>https://ubid.org/51655-011</t>
-  </si>
-  <si>
-    <t>https://ubid.org/58914-600</t>
-  </si>
-  <si>
-    <t>https://ubid.org/16590-286</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76214-032</t>
-  </si>
-  <si>
-    <t>https://ubid.org/61703-303</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50991-607</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49580-2411</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63323-359</t>
-  </si>
-  <si>
-    <t>https://ubid.org/13537-401</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49035-456</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50061-001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59995-001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/13811-671</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49288-0809</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68788-9941</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55045-1266</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-5989</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0185-0146</t>
-  </si>
-  <si>
-    <t>https://ubid.org/22431-100</t>
-  </si>
-  <si>
-    <t>https://ubid.org/43553-3248</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57520-1045</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49349-038</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57337-020</t>
-  </si>
-  <si>
-    <t>https://ubid.org/58668-2541</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57337-048</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49288-0350</t>
-  </si>
-  <si>
-    <t>https://ubid.org/46287-012</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52533-157</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52125-811</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55154-3727</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42507-946</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57520-0405</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55319-256</t>
-  </si>
-  <si>
-    <t>https://ubid.org/51079-766</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57896-760</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0173-0526</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-4546</t>
-  </si>
-  <si>
-    <t>https://ubid.org/43353-754</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0054-3176</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0615-7752</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55154-0975</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52959-301</t>
-  </si>
-  <si>
-    <t>https://ubid.org/17856-0685</t>
-  </si>
-  <si>
-    <t>https://ubid.org/75848-0400</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-0122</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63347-502</t>
-  </si>
-  <si>
-    <t>https://ubid.org/64778-0399</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57520-0034</t>
-  </si>
-  <si>
-    <t>https://ubid.org/21695-094</t>
-  </si>
-  <si>
-    <t>https://ubid.org/51389-118</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0378-0232</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52205-002</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0519-1344</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76378-013</t>
-  </si>
-  <si>
-    <t>https://ubid.org/58411-128</t>
-  </si>
-  <si>
-    <t>https://ubid.org/11523-4357</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68387-106</t>
-  </si>
-  <si>
-    <t>https://ubid.org/61787-064</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76347-120</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68220-144</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52731-7047</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0409-7100</t>
-  </si>
-  <si>
-    <t>https://ubid.org/48951-5019</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49527-014</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0641-0956</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68472-093</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55714-4560</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54575-937</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0363-0173</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0409-6533</t>
-  </si>
-  <si>
-    <t>https://ubid.org/37808-351</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0409-7793</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57520-0209</t>
-  </si>
-  <si>
-    <t>https://ubid.org/37012-255</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68084-775</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68788-9183</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0519-1171</t>
-  </si>
-  <si>
-    <t>https://ubid.org/62032-520</t>
-  </si>
-  <si>
-    <t>https://ubid.org/64578-0081</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68084-380</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0781-9039</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50666-005</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55154-6642</t>
-  </si>
-  <si>
-    <t>https://ubid.org/41250-962</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0311-0585</t>
-  </si>
-  <si>
-    <t>https://ubid.org/67405-575</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-1780</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49288-9934</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60742-473</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54841-001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/44924-130</t>
-  </si>
-  <si>
-    <t>https://ubid.org/67457-445</t>
-  </si>
-  <si>
-    <t>https://ubid.org/66312-176</t>
-  </si>
-  <si>
-    <t>https://ubid.org/41250-025</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49288-0330</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0069-3034</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49349-209</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60429-282</t>
-  </si>
-  <si>
-    <t>https://ubid.org/27495-013</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-3022</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0268-6761</t>
-  </si>
-  <si>
-    <t>https://ubid.org/64578-0112</t>
-  </si>
-  <si>
-    <t>https://ubid.org/37205-336</t>
-  </si>
-  <si>
-    <t>https://ubid.org/15751-2259</t>
-  </si>
-  <si>
-    <t>https://ubid.org/56062-166</t>
-  </si>
-  <si>
-    <t>https://ubid.org/25010-205</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-3655</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52686-231</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63323-474</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59898-122</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49288-0618</t>
-  </si>
-  <si>
-    <t>https://ubid.org/65841-066</t>
-  </si>
-  <si>
-    <t>https://ubid.org/43063-507</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50414-100</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0185-4400</t>
-  </si>
-  <si>
-    <t>https://ubid.org/10019-988</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0603-4655</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68745-1059</t>
-  </si>
-  <si>
-    <t>https://ubid.org/17518-056</t>
-  </si>
-  <si>
-    <t>https://ubid.org/61722-186</t>
-  </si>
-  <si>
-    <t>https://ubid.org/47335-343</t>
-  </si>
-  <si>
-    <t>https://ubid.org/43269-854</t>
-  </si>
-  <si>
-    <t>https://ubid.org/62011-0174</t>
-  </si>
-  <si>
-    <t>https://ubid.org/10056-872</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49203-740</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0378-7097</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63736-915</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60760-018</t>
-  </si>
-  <si>
-    <t>https://ubid.org/67172-574</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59779-285</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54458-913</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0703-4768</t>
-  </si>
-  <si>
-    <t>https://ubid.org/45802-650</t>
-  </si>
-  <si>
-    <t>https://ubid.org/41520-300</t>
-  </si>
-  <si>
-    <t>https://ubid.org/65954-354</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63629-2548</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0135-0462</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60429-374</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55289-911</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50991-901</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53329-157</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59726-227</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55910-013</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0615-0547</t>
-  </si>
-  <si>
-    <t>https://ubid.org/24236-385</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52854-036</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76173-1005</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49288-0303</t>
-  </si>
-  <si>
-    <t>https://ubid.org/61703-421</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52124-1000</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49999-932</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52125-047</t>
-  </si>
-  <si>
-    <t>https://ubid.org/58118-2272</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63824-254</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55111-621</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-2811</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54569-5401</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0884-1706</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57520-0303</t>
-  </si>
-  <si>
-    <t>https://ubid.org/66116-446</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36800-400</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76329-3339</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0573-0174</t>
-  </si>
-  <si>
-    <t>https://ubid.org/67938-1410</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55714-4466</t>
-  </si>
-  <si>
-    <t>https://ubid.org/13925-165</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0378-8172</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-1783</t>
-  </si>
-  <si>
-    <t>https://ubid.org/16729-022</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42806-055</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53808-0831</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53808-0650</t>
-  </si>
-  <si>
-    <t>https://ubid.org/69124-002</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0143-0170</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52125-876</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60760-043</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-5188</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59779-016</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49738-178</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49348-389</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57955-3320</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-3384</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49035-595</t>
-  </si>
-  <si>
-    <t>https://ubid.org/23155-186</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55118-325</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68180-501</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57520-0415</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52166-001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60505-3620</t>
-  </si>
-  <si>
-    <t>https://ubid.org/10678-011</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60505-0839</t>
-  </si>
-  <si>
-    <t>https://ubid.org/17478-508</t>
-  </si>
-  <si>
-    <t>https://ubid.org/17156-609</t>
-  </si>
-  <si>
-    <t>https://ubid.org/17478-216</t>
-  </si>
-  <si>
-    <t>https://ubid.org/41595-5521</t>
-  </si>
-  <si>
-    <t>https://ubid.org/43406-0003</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-2440</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59702-661</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55154-9443</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54569-4466</t>
-  </si>
-  <si>
-    <t>https://ubid.org/65044-1831</t>
-  </si>
-  <si>
-    <t>https://ubid.org/37000-823</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0009-0066</t>
-  </si>
-  <si>
-    <t>https://ubid.org/65862-174</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55692-200</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0093-1015</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76126-203</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63777-217</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50419-254</t>
-  </si>
-  <si>
-    <t>https://ubid.org/10544-065</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36800-214</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59779-346</t>
-  </si>
-  <si>
-    <t>https://ubid.org/64679-966</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59011-451</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68472-111</t>
-  </si>
-  <si>
-    <t>https://ubid.org/43846-0035</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52125-274</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0121-1576</t>
-  </si>
-  <si>
-    <t>https://ubid.org/70253-129</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49288-0159</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50845-0110</t>
-  </si>
-  <si>
-    <t>https://ubid.org/62600-110</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53045-112</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50436-9055</t>
-  </si>
-  <si>
-    <t>https://ubid.org/51346-259</t>
-  </si>
-  <si>
-    <t>https://ubid.org/48951-3159</t>
-  </si>
-  <si>
-    <t>https://ubid.org/48951-1224</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53489-216</t>
-  </si>
-  <si>
-    <t>https://ubid.org/33261-861</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53329-008</t>
-  </si>
-  <si>
-    <t>https://ubid.org/67296-0431</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68016-021</t>
-  </si>
-  <si>
-    <t>https://ubid.org/13537-499</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0615-7776</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-2061</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59726-211</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50580-198</t>
-  </si>
-  <si>
-    <t>https://ubid.org/43538-910</t>
-  </si>
-  <si>
-    <t>https://ubid.org/65649-101</t>
-  </si>
-  <si>
-    <t>https://ubid.org/51079-819</t>
-  </si>
-  <si>
-    <t>https://ubid.org/10356-365</t>
-  </si>
-  <si>
-    <t>https://ubid.org/67938-1079</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76472-1144</t>
-  </si>
-  <si>
-    <t>https://ubid.org/75981-210</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52125-957</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53113-657</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0091-3324</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68788-5928</t>
-  </si>
-  <si>
-    <t>https://ubid.org/75990-221</t>
-  </si>
-  <si>
-    <t>https://ubid.org/33261-988</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55566-8401</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0006-0117</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49348-687</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49349-122</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0472-0370</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50693-276</t>
-  </si>
-  <si>
-    <t>https://ubid.org/51079-431</t>
-  </si>
-  <si>
-    <t>https://ubid.org/66915-602</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68788-9726</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42254-074</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60681-5304</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0008-1179</t>
-  </si>
-  <si>
-    <t>https://ubid.org/64942-1212</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68703-018</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54482-144</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55319-393</t>
-  </si>
-  <si>
-    <t>https://ubid.org/10812-341</t>
-  </si>
-  <si>
-    <t>https://ubid.org/29860-200</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0597-0113</t>
-  </si>
-  <si>
-    <t>https://ubid.org/41167-0934</t>
-  </si>
-  <si>
-    <t>https://ubid.org/76282-419</t>
-  </si>
-  <si>
-    <t>https://ubid.org/18860-105</t>
-  </si>
-  <si>
-    <t>https://ubid.org/17478-504</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52959-620</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-1064</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-2042</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49349-388</t>
-  </si>
-  <si>
-    <t>https://ubid.org/11673-448</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42638-7664</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0113-0259</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63304-346</t>
-  </si>
-  <si>
-    <t>https://ubid.org/58194-019</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59970-075</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-2355</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55319-318</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-2975</t>
-  </si>
-  <si>
-    <t>https://ubid.org/56062-321</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60429-140</t>
-  </si>
-  <si>
-    <t>https://ubid.org/37205-223</t>
-  </si>
-  <si>
-    <t>https://ubid.org/21695-111</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-0107</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50804-190</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54575-166</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54494-001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/49288-0408</t>
-  </si>
-  <si>
-    <t>https://ubid.org/17089-294</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57520-0109</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63739-800</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-1856</t>
-  </si>
-  <si>
-    <t>https://ubid.org/37012-432</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-2353</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0093-2158</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52841-020</t>
-  </si>
-  <si>
-    <t>https://ubid.org/57520-0401</t>
-  </si>
-  <si>
-    <t>https://ubid.org/24385-517</t>
-  </si>
-  <si>
-    <t>https://ubid.org/61924-208</t>
-  </si>
-  <si>
-    <t>https://ubid.org/24385-035</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68258-6036</t>
-  </si>
-  <si>
-    <t>https://ubid.org/52125-830</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0078-0521</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50742-209</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55154-5605</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55316-001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53208-447</t>
-  </si>
-  <si>
-    <t>https://ubid.org/13668-332</t>
-  </si>
-  <si>
-    <t>https://ubid.org/36987-2994</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42291-680</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60723-033</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55154-9367</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0941-0429</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68788-9378</t>
-  </si>
-  <si>
-    <t>https://ubid.org/60512-2005</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55319-224</t>
-  </si>
-  <si>
-    <t>https://ubid.org/10237-745</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54569-1143</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0904-5997</t>
-  </si>
-  <si>
-    <t>https://ubid.org/54868-0854</t>
-  </si>
-  <si>
-    <t>https://ubid.org/59779-666</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68084-040</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63833-518</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63739-544</t>
-  </si>
-  <si>
-    <t>https://ubid.org/37808-176</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0378-0274</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0904-5977</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55154-8389</t>
-  </si>
-  <si>
-    <t>https://ubid.org/58118-0101</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0363-0372</t>
-  </si>
-  <si>
-    <t>https://ubid.org/51346-232</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0228-3004</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0338-0056</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0069-0178</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53808-0352</t>
-  </si>
-  <si>
-    <t>https://ubid.org/66949-928</t>
-  </si>
-  <si>
-    <t>https://ubid.org/46414-3333</t>
-  </si>
-  <si>
-    <t>https://ubid.org/53808-1044</t>
-  </si>
-  <si>
-    <t>https://ubid.org/63868-200</t>
-  </si>
-  <si>
-    <t>https://ubid.org/41520-296</t>
-  </si>
-  <si>
-    <t>https://ubid.org/68988-110</t>
-  </si>
-  <si>
-    <t>https://ubid.org/58876-102</t>
-  </si>
-  <si>
-    <t>https://ubid.org/50101-0001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/16590-835</t>
-  </si>
-  <si>
-    <t>https://ubid.org/10812-603</t>
-  </si>
-  <si>
-    <t>https://ubid.org/56062-994</t>
-  </si>
-  <si>
-    <t>https://ubid.org/41250-461</t>
-  </si>
-  <si>
-    <t>https://ubid.org/64980-320</t>
-  </si>
-  <si>
-    <t>https://ubid.org/55154-9666</t>
-  </si>
-  <si>
-    <t>https://ubid.org/42406-001</t>
-  </si>
-  <si>
-    <t>https://ubid.org/0049-4900</t>
-  </si>
-  <si>
-    <t>https://ubid.org/48878-3215</t>
+    <t>BKSG43YH+3HW-BKSG43YH+WCL-BKSG43YH+DDD</t>
+  </si>
+  <si>
+    <t>VEYQCG4R+Q5P-VEYQCG4R+X18-VEYQCG4R+A8U</t>
+  </si>
+  <si>
+    <t>2YWG8HDH+H0D-2YWG8HDH+0U8-2YWG8HDH+IGU</t>
+  </si>
+  <si>
+    <t>WW2YKUX2+FVE-WW2YKUX2+8SH-WW2YKUX2+3K2</t>
+  </si>
+  <si>
+    <t>VQADDOC3+V8E-VQADDOC3+XBF-VQADDOC3+2EE</t>
+  </si>
+  <si>
+    <t>ZIUC82DT+4X5-ZIUC82DT+C4M-ZIUC82DT+YK9</t>
+  </si>
+  <si>
+    <t>4RFKPAAM+R47-4RFKPAAM+TTP-4RFKPAAM+19B</t>
+  </si>
+  <si>
+    <t>LUFXFMVJ+8XY-LUFXFMVJ+QJG-LUFXFMVJ+QQ1</t>
+  </si>
+  <si>
+    <t>VZTP3DRR+K1J-VZTP3DRR+X4E-VZTP3DRR+E8V</t>
+  </si>
+  <si>
+    <t>QCILPX9G+1MT-QCILPX9G+NPX-QCILPX9G+HNH</t>
+  </si>
+  <si>
+    <t>J280123M+FZM-J280123M+XL3-J280123M+KKT</t>
+  </si>
+  <si>
+    <t>SRIY2TX6+2NR-SRIY2TX6+DS6-SRIY2TX6+F5Q</t>
+  </si>
+  <si>
+    <t>HJYLZ82Y+TZC-HJYLZ82Y+WTP-HJYLZ82Y+TEW</t>
+  </si>
+  <si>
+    <t>I10KDH6N+SZK-I10KDH6N+O33-I10KDH6N+CO4</t>
+  </si>
+  <si>
+    <t>ES3V041O+GTU-ES3V041O+SHD-ES3V041O+3KQ</t>
+  </si>
+  <si>
+    <t>DIFVA4M0+S50-DIFVA4M0+V1Y-DIFVA4M0+HWB</t>
+  </si>
+  <si>
+    <t>RYETKWOR+BJI-RYETKWOR+6OU-RYETKWOR+3RA</t>
+  </si>
+  <si>
+    <t>OQHJYJYC+8S8-OQHJYJYC+8YS-OQHJYJYC+KXZ</t>
+  </si>
+  <si>
+    <t>ZY340OD4+3R5-ZY340OD4+7IR-ZY340OD4+BRF</t>
+  </si>
+  <si>
+    <t>4YJ7IWMG+FUH-4YJ7IWMG+81E-4YJ7IWMG+PGM</t>
+  </si>
+  <si>
+    <t>XHMJ9GCF+3IZ-XHMJ9GCF+GUJ-XHMJ9GCF+9HF</t>
+  </si>
+  <si>
+    <t>V2LBLPFP+5CQ-V2LBLPFP+HCX-V2LBLPFP+DVH</t>
+  </si>
+  <si>
+    <t>45J0P3A6+0EN-45J0P3A6+Q8G-45J0P3A6+XCA</t>
+  </si>
+  <si>
+    <t>KUWGVI77+TUD-KUWGVI77+T2S-KUWGVI77+5OI</t>
+  </si>
+  <si>
+    <t>L76OPQFT+KJ4-L76OPQFT+D1F-L76OPQFT+NAJ</t>
+  </si>
+  <si>
+    <t>WYRXKMBK+1MV-WYRXKMBK+CJO-WYRXKMBK+AW7</t>
+  </si>
+  <si>
+    <t>4JUGMZFB+6J9-4JUGMZFB+8JP-4JUGMZFB+HJU</t>
+  </si>
+  <si>
+    <t>04ERUQ4Z+EDL-04ERUQ4Z+RG3-04ERUQ4Z+YIJ</t>
+  </si>
+  <si>
+    <t>KXS31BKB+I56-KXS31BKB+E93-KXS31BKB+2R8</t>
+  </si>
+  <si>
+    <t>JBVKQYJF+3MZ-JBVKQYJF+HGV-JBVKQYJF+1QZ</t>
+  </si>
+  <si>
+    <t>MHVDGRTK+U45-MHVDGRTK+KE8-MHVDGRTK+YBJ</t>
+  </si>
+  <si>
+    <t>K8OUFDWX+MBK-K8OUFDWX+LEN-K8OUFDWX+WO7</t>
+  </si>
+  <si>
+    <t>56B55X6D+M6I-56B55X6D+Z14-56B55X6D+KHN</t>
+  </si>
+  <si>
+    <t>ND5UK2YN+FNT-ND5UK2YN+YCP-ND5UK2YN+GZO</t>
+  </si>
+  <si>
+    <t>XN7F9AF1+GKL-XN7F9AF1+J3S-XN7F9AF1+6NT</t>
+  </si>
+  <si>
+    <t>F6DMYA9V+OQH-F6DMYA9V+M08-F6DMYA9V+36F</t>
+  </si>
+  <si>
+    <t>CFPN8H88+AGZ-CFPN8H88+BPW-CFPN8H88+9XF</t>
+  </si>
+  <si>
+    <t>DG3SUELX+4S9-DG3SUELX+4F8-DG3SUELX+F9Z</t>
+  </si>
+  <si>
+    <t>PCNGAFSF+ZRS-PCNGAFSF+T6E-PCNGAFSF+O4O</t>
+  </si>
+  <si>
+    <t>DY50FLFH+7NJ-DY50FLFH+FU3-DY50FLFH+4FH</t>
+  </si>
+  <si>
+    <t>2BTYAV2B+AWS-2BTYAV2B+HDI-2BTYAV2B+IE8</t>
+  </si>
+  <si>
+    <t>TJ29WQSO+YLU-TJ29WQSO+QII-TJ29WQSO+NM4</t>
+  </si>
+  <si>
+    <t>YJUXC47R+54I-YJUXC47R+O6M-YJUXC47R+WPB</t>
+  </si>
+  <si>
+    <t>WOO7WJVJ+CAI-WOO7WJVJ+K7F-WOO7WJVJ+VJ0</t>
+  </si>
+  <si>
+    <t>FFVUWSQF+UTU-FFVUWSQF+VNS-FFVUWSQF+RDX</t>
+  </si>
+  <si>
+    <t>7KUGMTXH+A4G-7KUGMTXH+G0X-7KUGMTXH+MTW</t>
+  </si>
+  <si>
+    <t>W9N7WR57+2K0-W9N7WR57+B2W-W9N7WR57+QC5</t>
+  </si>
+  <si>
+    <t>UXNZ2WA0+2UW-UXNZ2WA0+SKV-UXNZ2WA0+HYX</t>
+  </si>
+  <si>
+    <t>PSJBFXH9+GZU-PSJBFXH9+D0S-PSJBFXH9+6G4</t>
+  </si>
+  <si>
+    <t>M2YIFY7U+VTD-M2YIFY7U+F3E-M2YIFY7U+3ZF</t>
+  </si>
+  <si>
+    <t>YBMR3L0L+TTT-YBMR3L0L+7P8-YBMR3L0L+DO7</t>
+  </si>
+  <si>
+    <t>JQTJLDU8+J5S-JQTJLDU8+3K1-JQTJLDU8+R8X</t>
+  </si>
+  <si>
+    <t>9ZF3LKIB+C2B-9ZF3LKIB+8BZ-9ZF3LKIB+QX0</t>
+  </si>
+  <si>
+    <t>37211029+AGE-37211029+N72-37211029+JY8</t>
+  </si>
+  <si>
+    <t>P0TT3HN4+ZH9-P0TT3HN4+1O7-P0TT3HN4+2T8</t>
+  </si>
+  <si>
+    <t>42YHZLS3+GEE-42YHZLS3+8UT-42YHZLS3+9K8</t>
+  </si>
+  <si>
+    <t>CEQL7DY4+H5R-CEQL7DY4+VKS-CEQL7DY4+6HZ</t>
+  </si>
+  <si>
+    <t>P7GVWCI5+8HZ-P7GVWCI5+C3M-P7GVWCI5+PWP</t>
+  </si>
+  <si>
+    <t>RDO17R82+LUZ-RDO17R82+UDD-RDO17R82+6JK</t>
+  </si>
+  <si>
+    <t>WHGFB748+55S-WHGFB748+0FG-WHGFB748+LRC</t>
+  </si>
+  <si>
+    <t>4JBH33FS+F0D-4JBH33FS+DO0-4JBH33FS+DBC</t>
+  </si>
+  <si>
+    <t>KX8BYMKL+N82-KX8BYMKL+PMC-KX8BYMKL+0ST</t>
+  </si>
+  <si>
+    <t>2WYRAH6Y+E1U-2WYRAH6Y+GFK-2WYRAH6Y+9MG</t>
+  </si>
+  <si>
+    <t>OYSM5IFX+03B-OYSM5IFX+O23-OYSM5IFX+BUY</t>
+  </si>
+  <si>
+    <t>Z58I32QE+TBT-Z58I32QE+KW1-Z58I32QE+WJN</t>
+  </si>
+  <si>
+    <t>D24X4OLO+ANH-D24X4OLO+PKP-D24X4OLO+DPA</t>
+  </si>
+  <si>
+    <t>EU77RODG+NWK-EU77RODG+M17-EU77RODG+1JC</t>
+  </si>
+  <si>
+    <t>0WDPW5OD+ZE5-0WDPW5OD+MCJ-0WDPW5OD+UPK</t>
+  </si>
+  <si>
+    <t>R4HSLCY5+5X3-R4HSLCY5+VCU-R4HSLCY5+TGU</t>
+  </si>
+  <si>
+    <t>PJZNX715+PQ7-PJZNX715+9KX-PJZNX715+U7D</t>
+  </si>
+  <si>
+    <t>V5P9S6JC+ILX-V5P9S6JC+M5M-V5P9S6JC+ZLW</t>
+  </si>
+  <si>
+    <t>H4N9BHSJ+6F9-H4N9BHSJ+VPW-H4N9BHSJ+E0D</t>
+  </si>
+  <si>
+    <t>SY019G49+J4N-SY019G49+0TG-SY019G49+XUI</t>
+  </si>
+  <si>
+    <t>M7LTUEY7+47V-M7LTUEY7+OCD-M7LTUEY7+EVP</t>
+  </si>
+  <si>
+    <t>MHU84LMT+NB4-MHU84LMT+SNC-MHU84LMT+II2</t>
+  </si>
+  <si>
+    <t>RQPAR1PK+O4L-RQPAR1PK+72J-RQPAR1PK+K4Y</t>
+  </si>
+  <si>
+    <t>VZD73AYH+1CY-VZD73AYH+6KX-VZD73AYH+RKB</t>
+  </si>
+  <si>
+    <t>KXL4FSO1+XGN-KXL4FSO1+CRS-KXL4FSO1+6GH</t>
+  </si>
+  <si>
+    <t>QVDSYF3E+CK9-QVDSYF3E+FPW-QVDSYF3E+5SJ</t>
+  </si>
+  <si>
+    <t>4O2MK9IY+G4H-4O2MK9IY+BGN-4O2MK9IY+AS0</t>
+  </si>
+  <si>
+    <t>8QFF46OY+H6K-8QFF46OY+A9F-8QFF46OY+SS9</t>
+  </si>
+  <si>
+    <t>QUSANZZO+4EO-QUSANZZO+IEX-QUSANZZO+CT3</t>
+  </si>
+  <si>
+    <t>6UKQNCOZ+YOX-6UKQNCOZ+IZV-6UKQNCOZ+2D6</t>
+  </si>
+  <si>
+    <t>VQS2LIFM+109-VQS2LIFM+1KT-VQS2LIFM+PTA</t>
+  </si>
+  <si>
+    <t>SNZQYJ50+RS2-SNZQYJ50+TEI-SNZQYJ50+1DT</t>
+  </si>
+  <si>
+    <t>UM087VBW+1OD-UM087VBW+0IW-UM087VBW+9Z7</t>
+  </si>
+  <si>
+    <t>N1OGF5F8+M1U-N1OGF5F8+N0L-N1OGF5F8+96H</t>
+  </si>
+  <si>
+    <t>9QYQSE6H+4SU-9QYQSE6H+NHB-9QYQSE6H+K8W</t>
+  </si>
+  <si>
+    <t>SBXJN4KO+NZW-SBXJN4KO+KFI-SBXJN4KO+D01</t>
+  </si>
+  <si>
+    <t>469XIZ31+OQ5-469XIZ31+9EG-469XIZ31+WD0</t>
+  </si>
+  <si>
+    <t>ZGJ5H7KA+O7Q-ZGJ5H7KA+I4I-ZGJ5H7KA+DAJ</t>
+  </si>
+  <si>
+    <t>CVAWBBKU+8I3-CVAWBBKU+DRU-CVAWBBKU+IJJ</t>
+  </si>
+  <si>
+    <t>ZDO7B9FH+JEZ-ZDO7B9FH+BG6-ZDO7B9FH+MBN</t>
+  </si>
+  <si>
+    <t>BBS3NZT6+NZV-BBS3NZT6+T1T-BBS3NZT6+8UB</t>
+  </si>
+  <si>
+    <t>YS7MGEIM+QGX-YS7MGEIM+TG6-YS7MGEIM+L9O</t>
+  </si>
+  <si>
+    <t>72TNTIZR+E3H-72TNTIZR+717-72TNTIZR+WV2</t>
+  </si>
+  <si>
+    <t>D4L96IJM+6D2-D4L96IJM+3MV-D4L96IJM+FVG</t>
+  </si>
+  <si>
+    <t>GT9FJ97I+D6T-GT9FJ97I+LDT-GT9FJ97I+XF8</t>
+  </si>
+  <si>
+    <t>TZO1EXH2+99D-TZO1EXH2+Y5L-TZO1EXH2+LLV</t>
+  </si>
+  <si>
+    <t>HDSZVANK+OUK-HDSZVANK+ER7-HDSZVANK+6YF</t>
+  </si>
+  <si>
+    <t>3200F6A8+2FU-3200F6A8+YS1-3200F6A8+HSN</t>
+  </si>
+  <si>
+    <t>J4NINAPX+FXP-J4NINAPX+HRJ-J4NINAPX+32G</t>
+  </si>
+  <si>
+    <t>65KOE1KX+2DM-65KOE1KX+XRT-65KOE1KX+R71</t>
+  </si>
+  <si>
+    <t>1DANDZWW+H14-1DANDZWW+I97-1DANDZWW+KAG</t>
+  </si>
+  <si>
+    <t>OQYQKQKF+NXB-OQYQKQKF+F70-OQYQKQKF+JR2</t>
+  </si>
+  <si>
+    <t>LZIDDTSM+AJM-LZIDDTSM+NSU-LZIDDTSM+ZDQ</t>
+  </si>
+  <si>
+    <t>J17FHW3X+MXA-J17FHW3X+A0W-J17FHW3X+XHA</t>
+  </si>
+  <si>
+    <t>3PP3TNWT+P2X-3PP3TNWT+56Z-3PP3TNWT+DFK</t>
+  </si>
+  <si>
+    <t>VR9XF4FC+YZY-VR9XF4FC+RM5-VR9XF4FC+T9Y</t>
+  </si>
+  <si>
+    <t>9HSM9GB3+IN1-9HSM9GB3+LJH-9HSM9GB3+CBH</t>
+  </si>
+  <si>
+    <t>C324LOS3+27F-C324LOS3+40T-C324LOS3+YII</t>
+  </si>
+  <si>
+    <t>K7HLO608+GNK-K7HLO608+H5D-K7HLO608+27K</t>
+  </si>
+  <si>
+    <t>3Q965RB4+332-3Q965RB4+H4G-3Q965RB4+B76</t>
+  </si>
+  <si>
+    <t>GYQQ33DY+F7G-GYQQ33DY+VWK-GYQQ33DY+X4G</t>
+  </si>
+  <si>
+    <t>1E6E6B94+PW2-1E6E6B94+7E1-1E6E6B94+9SS</t>
+  </si>
+  <si>
+    <t>U27O1IR8+R19-U27O1IR8+ZIS-U27O1IR8+YXW</t>
+  </si>
+  <si>
+    <t>Z0UK7TNZ+O33-Z0UK7TNZ+MXW-Z0UK7TNZ+0SY</t>
+  </si>
+  <si>
+    <t>37A78F1J+TV7-37A78F1J+FU1-37A78F1J+3DR</t>
+  </si>
+  <si>
+    <t>CNZO4X7T+KK7-CNZO4X7T+7P4-CNZO4X7T+TH6</t>
+  </si>
+  <si>
+    <t>SHV76G2F+GBP-SHV76G2F+DHR-SHV76G2F+Z56</t>
+  </si>
+  <si>
+    <t>MH98GYN3+MYY-MH98GYN3+DZP-MH98GYN3+9ET</t>
+  </si>
+  <si>
+    <t>MQLLA62U+WRX-MQLLA62U+KSZ-MQLLA62U+FNL</t>
+  </si>
+  <si>
+    <t>HJ6UFHWD+LH6-HJ6UFHWD+U6K-HJ6UFHWD+TJ2</t>
+  </si>
+  <si>
+    <t>3TESQPN6+Q4O-3TESQPN6+EHC-3TESQPN6+JM1</t>
+  </si>
+  <si>
+    <t>5V6Y02PD+VPM-5V6Y02PD+C7T-5V6Y02PD+FHF</t>
+  </si>
+  <si>
+    <t>1LMJCHFI+MJB-1LMJCHFI+CE5-1LMJCHFI+BWG</t>
+  </si>
+  <si>
+    <t>2FP3FHQB+BCF-2FP3FHQB+IX9-2FP3FHQB+8R2</t>
+  </si>
+  <si>
+    <t>6Z1I20QP+OO0-6Z1I20QP+A3J-6Z1I20QP+3OU</t>
+  </si>
+  <si>
+    <t>YYBZ6HY7+RL5-YYBZ6HY7+BT6-YYBZ6HY7+WPI</t>
+  </si>
+  <si>
+    <t>5S4UGA3S+1Q8-5S4UGA3S+ZVH-5S4UGA3S+K5O</t>
+  </si>
+  <si>
+    <t>42577P5G+V4C-42577P5G+TBL-42577P5G+5VM</t>
+  </si>
+  <si>
+    <t>8YHUGRT3+DFO-8YHUGRT3+4LC-8YHUGRT3+I9H</t>
+  </si>
+  <si>
+    <t>MOKL3GBC+EHW-MOKL3GBC+4F2-MOKL3GBC+49M</t>
+  </si>
+  <si>
+    <t>516C5VWK+3EW-516C5VWK+QMF-516C5VWK+74L</t>
+  </si>
+  <si>
+    <t>7RUHOCJU+U8W-7RUHOCJU+ONQ-7RUHOCJU+ICH</t>
+  </si>
+  <si>
+    <t>OCFO440O+DIS-OCFO440O+MB2-OCFO440O+YZ7</t>
+  </si>
+  <si>
+    <t>76U82IT6+WXE-76U82IT6+QYK-76U82IT6+PME</t>
+  </si>
+  <si>
+    <t>W02GGKWZ+U5R-W02GGKWZ+0JW-W02GGKWZ+WZS</t>
+  </si>
+  <si>
+    <t>1GOQRZQ9+TMA-1GOQRZQ9+OWT-1GOQRZQ9+EG8</t>
+  </si>
+  <si>
+    <t>619UWWYQ+VG6-619UWWYQ+87Y-619UWWYQ+3U9</t>
+  </si>
+  <si>
+    <t>39WGHHOT+O55-39WGHHOT+75S-39WGHHOT+OA3</t>
+  </si>
+  <si>
+    <t>3ABD0KF3+V0E-3ABD0KF3+VFD-3ABD0KF3+IAU</t>
+  </si>
+  <si>
+    <t>OOFSDAAA+M9W-OOFSDAAA+MT5-OOFSDAAA+NET</t>
+  </si>
+  <si>
+    <t>0VCZ66OV+VNX-0VCZ66OV+9NB-0VCZ66OV+2SE</t>
+  </si>
+  <si>
+    <t>0ZD7LAGM+CZ2-0ZD7LAGM+AJP-0ZD7LAGM+VG6</t>
+  </si>
+  <si>
+    <t>O4RD5TD9+A7E-O4RD5TD9+PGT-O4RD5TD9+VFJ</t>
+  </si>
+  <si>
+    <t>8VN86BYH+YBK-8VN86BYH+CRL-8VN86BYH+XCG</t>
+  </si>
+  <si>
+    <t>MER1SAEM+YT2-MER1SAEM+ZFB-MER1SAEM+Q41</t>
+  </si>
+  <si>
+    <t>TSSQ0QPM+TD1-TSSQ0QPM+MRO-TSSQ0QPM+ADU</t>
+  </si>
+  <si>
+    <t>FS3B0OLO+OG3-FS3B0OLO+UO4-FS3B0OLO+AVY</t>
+  </si>
+  <si>
+    <t>ME1LX5LK+ZC7-ME1LX5LK+HF3-ME1LX5LK+DJE</t>
+  </si>
+  <si>
+    <t>KMB2S96Y+SXY-KMB2S96Y+D7E-KMB2S96Y+HW9</t>
+  </si>
+  <si>
+    <t>7THBFZQC+CH7-7THBFZQC+SNQ-7THBFZQC+UYI</t>
+  </si>
+  <si>
+    <t>BEX2PBTU+PYG-BEX2PBTU+3N8-BEX2PBTU+7G2</t>
+  </si>
+  <si>
+    <t>OYQSJMHP+M1K-OYQSJMHP+WNJ-OYQSJMHP+TDY</t>
+  </si>
+  <si>
+    <t>Q1RLPCLG+JII-Q1RLPCLG+Y9K-Q1RLPCLG+E17</t>
+  </si>
+  <si>
+    <t>CREGOZFI+9C5-CREGOZFI+X4B-CREGOZFI+PD4</t>
+  </si>
+  <si>
+    <t>69HRU7XM+DG7-69HRU7XM+XIH-69HRU7XM+I9S</t>
+  </si>
+  <si>
+    <t>LJ8YP29C+BA4-LJ8YP29C+HGV-LJ8YP29C+2PO</t>
+  </si>
+  <si>
+    <t>Y8PYUID4+ASF-Y8PYUID4+6TT-Y8PYUID4+GY2</t>
+  </si>
+  <si>
+    <t>O7XQLQ3I+4V3-O7XQLQ3I+VDA-O7XQLQ3I+QR7</t>
+  </si>
+  <si>
+    <t>22LKAFZB+827-22LKAFZB+LJP-22LKAFZB+LO9</t>
+  </si>
+  <si>
+    <t>MA1YMVG7+JFI-MA1YMVG7+QWB-MA1YMVG7+9ON</t>
+  </si>
+  <si>
+    <t>HJNGGYWN+BBK-HJNGGYWN+B7S-HJNGGYWN+MCW</t>
+  </si>
+  <si>
+    <t>NAV060B2+PX2-NAV060B2+6BY-NAV060B2+40D</t>
+  </si>
+  <si>
+    <t>PTFUZAJQ+2PN-PTFUZAJQ+7YD-PTFUZAJQ+MAP</t>
+  </si>
+  <si>
+    <t>A6WLSBGB+VRX-A6WLSBGB+HU2-A6WLSBGB+4UK</t>
+  </si>
+  <si>
+    <t>NCZGE6N1+DSP-NCZGE6N1+2WZ-NCZGE6N1+3B8</t>
+  </si>
+  <si>
+    <t>ZAUI0PNM+BD7-ZAUI0PNM+YFP-ZAUI0PNM+7AJ</t>
+  </si>
+  <si>
+    <t>QV4ARK0E+W1Q-QV4ARK0E+KNC-QV4ARK0E+186</t>
+  </si>
+  <si>
+    <t>1D8IZ31I+XWU-1D8IZ31I+4T8-1D8IZ31I+05O</t>
+  </si>
+  <si>
+    <t>XB1Y6CHF+LX1-XB1Y6CHF+26D-XB1Y6CHF+Q7V</t>
+  </si>
+  <si>
+    <t>WHGAD6VL+KBP-WHGAD6VL+BZU-WHGAD6VL+EZY</t>
+  </si>
+  <si>
+    <t>TQNS1XUR+IZ1-TQNS1XUR+QD6-TQNS1XUR+2HE</t>
+  </si>
+  <si>
+    <t>FM1117PJ+AAP-FM1117PJ+5GM-FM1117PJ+8RX</t>
+  </si>
+  <si>
+    <t>2J9XODY0+ECP-2J9XODY0+G92-2J9XODY0+Q6I</t>
+  </si>
+  <si>
+    <t>IOSQ3EGK+2PP-IOSQ3EGK+5XN-IOSQ3EGK+4LI</t>
+  </si>
+  <si>
+    <t>XQPT1IQ3+8HZ-XQPT1IQ3+M0F-XQPT1IQ3+XGS</t>
+  </si>
+  <si>
+    <t>YCT2A781+5QG-YCT2A781+128-YCT2A781+N6V</t>
+  </si>
+  <si>
+    <t>8VT4VG48+0PU-8VT4VG48+2BU-8VT4VG48+4P7</t>
+  </si>
+  <si>
+    <t>L9LKN3MS+L7Y-L9LKN3MS+VEL-L9LKN3MS+CHM</t>
+  </si>
+  <si>
+    <t>Y83JG15H+8V4-Y83JG15H+3JA-Y83JG15H+ILN</t>
+  </si>
+  <si>
+    <t>SMVEX0PZ+93G-SMVEX0PZ+HI7-SMVEX0PZ+W20</t>
+  </si>
+  <si>
+    <t>G9SDQJRA+REQ-G9SDQJRA+LGW-G9SDQJRA+895</t>
+  </si>
+  <si>
+    <t>1GYL7EU5+D38-1GYL7EU5+V1Y-1GYL7EU5+JTT</t>
+  </si>
+  <si>
+    <t>FFKG3V7O+EDI-FFKG3V7O+4ND-FFKG3V7O+YTV</t>
+  </si>
+  <si>
+    <t>QDXXZ9FD+VL2-QDXXZ9FD+NYZ-QDXXZ9FD+6FP</t>
+  </si>
+  <si>
+    <t>IONHQ4CE+DQU-IONHQ4CE+VDA-IONHQ4CE+5KI</t>
+  </si>
+  <si>
+    <t>X0FIZS0B+9E2-X0FIZS0B+CNR-X0FIZS0B+TOW</t>
+  </si>
+  <si>
+    <t>9VBETKGS+5QH-9VBETKGS+XGT-9VBETKGS+Y7N</t>
+  </si>
+  <si>
+    <t>UVOAG7JI+H2P-UVOAG7JI+IHV-UVOAG7JI+Q6S</t>
+  </si>
+  <si>
+    <t>00274DEV+CEI-00274DEV+EZ9-00274DEV+THR</t>
+  </si>
+  <si>
+    <t>UOMKUP3E+XFR-UOMKUP3E+PJZ-UOMKUP3E+E9Q</t>
+  </si>
+  <si>
+    <t>6WAFBCVZ+9UQ-6WAFBCVZ+R7J-6WAFBCVZ+HRM</t>
+  </si>
+  <si>
+    <t>ZV95BV6N+EVS-ZV95BV6N+4OB-ZV95BV6N+WMI</t>
+  </si>
+  <si>
+    <t>9QC0NMSA+WI1-9QC0NMSA+WE3-9QC0NMSA+TSW</t>
+  </si>
+  <si>
+    <t>NZYJTJFU+EGB-NZYJTJFU+4JD-NZYJTJFU+DQK</t>
+  </si>
+  <si>
+    <t>VBXD2O85+AB2-VBXD2O85+FF4-VBXD2O85+254</t>
+  </si>
+  <si>
+    <t>S6P1KY90+J57-S6P1KY90+S3A-S6P1KY90+I7Q</t>
+  </si>
+  <si>
+    <t>94DPEMUN+S7R-94DPEMUN+6Z6-94DPEMUN+IQZ</t>
+  </si>
+  <si>
+    <t>OBCF9BWW+5AK-OBCF9BWW+B78-OBCF9BWW+HRI</t>
+  </si>
+  <si>
+    <t>DJSM9S6R+WYS-DJSM9S6R+7IZ-DJSM9S6R+IC0</t>
+  </si>
+  <si>
+    <t>ZYMZRFYV+4AM-ZYMZRFYV+BWR-ZYMZRFYV+NCT</t>
+  </si>
+  <si>
+    <t>E03M6D5L+EQ4-E03M6D5L+KRZ-E03M6D5L+RJM</t>
+  </si>
+  <si>
+    <t>A0S3LACH+TJ0-A0S3LACH+X4O-A0S3LACH+W0W</t>
+  </si>
+  <si>
+    <t>CBXATJNA+JKK-CBXATJNA+1HN-CBXATJNA+BN3</t>
+  </si>
+  <si>
+    <t>5L8H0K7S+I9Y-5L8H0K7S+G2Y-5L8H0K7S+Y8F</t>
+  </si>
+  <si>
+    <t>4R8SIO2L+MZT-4R8SIO2L+ZFE-4R8SIO2L+4Q1</t>
+  </si>
+  <si>
+    <t>H9F17NSH+93I-H9F17NSH+WYX-H9F17NSH+V0Y</t>
+  </si>
+  <si>
+    <t>ZKSS2ZMP+5T7-ZKSS2ZMP+5VY-ZKSS2ZMP+PF3</t>
+  </si>
+  <si>
+    <t>4NFHR8F1+ZHX-4NFHR8F1+PUE-4NFHR8F1+H3X</t>
+  </si>
+  <si>
+    <t>XKHIGPE2+QFS-XKHIGPE2+W6G-XKHIGPE2+F9U</t>
+  </si>
+  <si>
+    <t>12ZCVRO7+NEN-12ZCVRO7+D47-12ZCVRO7+MTI</t>
+  </si>
+  <si>
+    <t>5848UXMH+UDR-5848UXMH+FZX-5848UXMH+9BT</t>
+  </si>
+  <si>
+    <t>PZ4DXVGC+EU9-PZ4DXVGC+4CK-PZ4DXVGC+M8E</t>
+  </si>
+  <si>
+    <t>BR9A54LJ+DW1-BR9A54LJ+LLA-BR9A54LJ+K2C</t>
+  </si>
+  <si>
+    <t>YLI2BUJW+T5O-YLI2BUJW+ZFJ-YLI2BUJW+9WK</t>
+  </si>
+  <si>
+    <t>HUB39MXK+TML-HUB39MXK+AMV-HUB39MXK+YDU</t>
+  </si>
+  <si>
+    <t>JMYANB4C+77P-JMYANB4C+L6J-JMYANB4C+JK6</t>
+  </si>
+  <si>
+    <t>ALYZVRHY+37X-ALYZVRHY+3LP-ALYZVRHY+IRW</t>
+  </si>
+  <si>
+    <t>DZTDYVEX+B8X-DZTDYVEX+89P-DZTDYVEX+FDA</t>
+  </si>
+  <si>
+    <t>1RMUNLQE+4W4-1RMUNLQE+R0C-1RMUNLQE+QAQ</t>
+  </si>
+  <si>
+    <t>KWWU5P72+ZDR-KWWU5P72+LPB-KWWU5P72+888</t>
+  </si>
+  <si>
+    <t>ZP7BUR05+B4E-ZP7BUR05+SLC-ZP7BUR05+8TX</t>
+  </si>
+  <si>
+    <t>VN0VLAVW+HI1-VN0VLAVW+OYN-VN0VLAVW+ZJM</t>
+  </si>
+  <si>
+    <t>DCRUBE40+QL8-DCRUBE40+UNO-DCRUBE40+CFC</t>
+  </si>
+  <si>
+    <t>DTCK8YDT+6EA-DTCK8YDT+TFN-DTCK8YDT+GM4</t>
+  </si>
+  <si>
+    <t>0CGXFVZD+ZDD-0CGXFVZD+V6H-0CGXFVZD+S6L</t>
+  </si>
+  <si>
+    <t>2V26J853+V64-2V26J853+FLL-2V26J853+Q92</t>
+  </si>
+  <si>
+    <t>1LPX5V9Y+735-1LPX5V9Y+O1D-1LPX5V9Y+TNI</t>
+  </si>
+  <si>
+    <t>2FC0T3YJ+0ND-2FC0T3YJ+DCM-2FC0T3YJ+3I7</t>
+  </si>
+  <si>
+    <t>GKBK0U0L+6WG-GKBK0U0L+B6E-GKBK0U0L+B5I</t>
+  </si>
+  <si>
+    <t>FFSPR0TU+I8D-FFSPR0TU+YZ5-FFSPR0TU+W7S</t>
+  </si>
+  <si>
+    <t>S5A3FWZ3+B0X-S5A3FWZ3+YC3-S5A3FWZ3+X8P</t>
+  </si>
+  <si>
+    <t>4UETAUJW+9KP-4UETAUJW+JBY-4UETAUJW+ENO</t>
+  </si>
+  <si>
+    <t>W60M7VNT+SJO-W60M7VNT+YQV-W60M7VNT+OFQ</t>
+  </si>
+  <si>
+    <t>EJOUIJDI+VD5-EJOUIJDI+P0G-EJOUIJDI+DRK</t>
+  </si>
+  <si>
+    <t>H0TEU04I+RZ6-H0TEU04I+5LG-H0TEU04I+VH4</t>
+  </si>
+  <si>
+    <t>2KTVPQ4I+6LN-2KTVPQ4I+9I5-2KTVPQ4I+21T</t>
+  </si>
+  <si>
+    <t>I7QMU6LM+C9P-I7QMU6LM+GZS-I7QMU6LM+S7M</t>
+  </si>
+  <si>
+    <t>DQN8759K+NVQ-DQN8759K+FRT-DQN8759K+FFU</t>
+  </si>
+  <si>
+    <t>ONZS5GRO+VFO-ONZS5GRO+W70-ONZS5GRO+Y24</t>
+  </si>
+  <si>
+    <t>JLDGFJV6+JQW-JLDGFJV6+XGZ-JLDGFJV6+BX9</t>
+  </si>
+  <si>
+    <t>MVBWLKPG+1JX-MVBWLKPG+3MG-MVBWLKPG+ZP2</t>
+  </si>
+  <si>
+    <t>PFENZYYD+VZ9-PFENZYYD+R30-PFENZYYD+K38</t>
+  </si>
+  <si>
+    <t>9EF0NZTZ+EPX-9EF0NZTZ+1CD-9EF0NZTZ+G8W</t>
+  </si>
+  <si>
+    <t>ZAP4XC1B+ZFZ-ZAP4XC1B+J49-ZAP4XC1B+UEM</t>
+  </si>
+  <si>
+    <t>UBB6YLOY+RMK-UBB6YLOY+DAJ-UBB6YLOY+ZEB</t>
+  </si>
+  <si>
+    <t>GJ9PFO2R+M66-GJ9PFO2R+8C5-GJ9PFO2R+PE6</t>
+  </si>
+  <si>
+    <t>A7FB9JHN+MJE-A7FB9JHN+PPA-A7FB9JHN+FEG</t>
+  </si>
+  <si>
+    <t>CGRHTALT+EBM-CGRHTALT+EAP-CGRHTALT+6B9</t>
+  </si>
+  <si>
+    <t>2OAICT5L+CNS-2OAICT5L+65A-2OAICT5L+FMN</t>
+  </si>
+  <si>
+    <t>WTQJ2747+PDX-WTQJ2747+B79-WTQJ2747+DBF</t>
+  </si>
+  <si>
+    <t>WJRGIC0I+AT9-WJRGIC0I+ERR-WJRGIC0I+0BT</t>
+  </si>
+  <si>
+    <t>G5SAPUOY+YG3-G5SAPUOY+ZGE-G5SAPUOY+2GM</t>
+  </si>
+  <si>
+    <t>BGSUJF8K+P12-BGSUJF8K+3PX-BGSUJF8K+BX4</t>
+  </si>
+  <si>
+    <t>K1VQJVER+2AJ-K1VQJVER+TW0-K1VQJVER+OY8</t>
+  </si>
+  <si>
+    <t>HE86M6YV+SS3-HE86M6YV+QF4-HE86M6YV+EOM</t>
+  </si>
+  <si>
+    <t>A42YNIVK+3JB-A42YNIVK+M61-A42YNIVK+HD7</t>
+  </si>
+  <si>
+    <t>2TYJMIFG+7JO-2TYJMIFG+LQ4-2TYJMIFG+AHO</t>
+  </si>
+  <si>
+    <t>HDR39KK6+E6N-HDR39KK6+XUJ-HDR39KK6+JGU</t>
+  </si>
+  <si>
+    <t>NU77Y7MG+QGP-NU77Y7MG+C3L-NU77Y7MG+GDC</t>
+  </si>
+  <si>
+    <t>RSJUIFLD+HSJ-RSJUIFLD+YLJ-RSJUIFLD+HH6</t>
+  </si>
+  <si>
+    <t>NUW3UUXK+X5T-NUW3UUXK+GAY-NUW3UUXK+CK6</t>
+  </si>
+  <si>
+    <t>C5YJ4FS1+48X-C5YJ4FS1+NUZ-C5YJ4FS1+SFT</t>
+  </si>
+  <si>
+    <t>SRGVWWE5+OA6-SRGVWWE5+8SV-SRGVWWE5+J8G</t>
+  </si>
+  <si>
+    <t>THTM5PQH+SKW-THTM5PQH+OJ7-THTM5PQH+KDH</t>
+  </si>
+  <si>
+    <t>P0LKKLAP+CIZ-P0LKKLAP+AZ9-P0LKKLAP+3JZ</t>
+  </si>
+  <si>
+    <t>J084AYM6+KXP-J084AYM6+OKG-J084AYM6+SW3</t>
+  </si>
+  <si>
+    <t>LQ8G32HM+ZAG-LQ8G32HM+ODE-LQ8G32HM+X35</t>
+  </si>
+  <si>
+    <t>NXAXRHNS+103-NXAXRHNS+BTT-NXAXRHNS+Z4X</t>
+  </si>
+  <si>
+    <t>XRGERNNK+DCE-XRGERNNK+CJM-XRGERNNK+26V</t>
+  </si>
+  <si>
+    <t>9Q03DO2T+29Z-9Q03DO2T+RKZ-9Q03DO2T+6TC</t>
+  </si>
+  <si>
+    <t>Z5IUSFOD+D8O-Z5IUSFOD+7D2-Z5IUSFOD+OS8</t>
+  </si>
+  <si>
+    <t>6OQ3MANN+ADY-6OQ3MANN+G5B-6OQ3MANN+D4K</t>
+  </si>
+  <si>
+    <t>8W3AKAOG+PF4-8W3AKAOG+NR3-8W3AKAOG+774</t>
+  </si>
+  <si>
+    <t>T1Y1IB9I+KFB-T1Y1IB9I+V0N-T1Y1IB9I+JYV</t>
+  </si>
+  <si>
+    <t>H5P52P3D+QQ7-H5P52P3D+0TW-H5P52P3D+G9E</t>
+  </si>
+  <si>
+    <t>FD5KCM40+9JE-FD5KCM40+ID9-FD5KCM40+PMD</t>
+  </si>
+  <si>
+    <t>L5JHJ0BO+97W-L5JHJ0BO+TBL-L5JHJ0BO+KYP</t>
+  </si>
+  <si>
+    <t>8CRUJLK0+FYS-8CRUJLK0+B1T-8CRUJLK0+7DI</t>
+  </si>
+  <si>
+    <t>0BKBH6CJ+5OF-0BKBH6CJ+I7X-0BKBH6CJ+IFI</t>
+  </si>
+  <si>
+    <t>L7883IPN+BYZ-L7883IPN+CSF-L7883IPN+BA6</t>
+  </si>
+  <si>
+    <t>JKY3Y00C+CBQ-JKY3Y00C+W1K-JKY3Y00C+HPX</t>
+  </si>
+  <si>
+    <t>G0EDS64X+7Y3-G0EDS64X+7R0-G0EDS64X+4QD</t>
+  </si>
+  <si>
+    <t>9GN8L2L1+M67-9GN8L2L1+HW8-9GN8L2L1+4TS</t>
+  </si>
+  <si>
+    <t>PUIBGJU0+0IX-PUIBGJU0+O5B-PUIBGJU0+9PY</t>
+  </si>
+  <si>
+    <t>SIIT5V2P+ZEK-SIIT5V2P+RAK-SIIT5V2P+GDH</t>
+  </si>
+  <si>
+    <t>P8QMKWY6+0GZ-P8QMKWY6+KHI-P8QMKWY6+N17</t>
+  </si>
+  <si>
+    <t>8XD2ENZN+ZYL-8XD2ENZN+KMB-8XD2ENZN+U73</t>
+  </si>
+  <si>
+    <t>6HETIVBY+Q22-6HETIVBY+V9M-6HETIVBY+JN4</t>
+  </si>
+  <si>
+    <t>T40FYX78+9VX-T40FYX78+UQR-T40FYX78+Y30</t>
+  </si>
+  <si>
+    <t>V4JT562Z+FIE-V4JT562Z+OKR-V4JT562Z+BQ7</t>
+  </si>
+  <si>
+    <t>0OGQD2P4+NCZ-0OGQD2P4+P3A-0OGQD2P4+Y6B</t>
+  </si>
+  <si>
+    <t>7845J8XH+Q1L-7845J8XH+FQ0-7845J8XH+7G3</t>
+  </si>
+  <si>
+    <t>PPGDOGZS+YRZ-PPGDOGZS+EXC-PPGDOGZS+O9U</t>
+  </si>
+  <si>
+    <t>53M61640+VOV-53M61640+FRR-53M61640+76M</t>
+  </si>
+  <si>
+    <t>1X6WGH2H+C2V-1X6WGH2H+YHR-1X6WGH2H+WUF</t>
+  </si>
+  <si>
+    <t>QKJNRCPU+NQB-QKJNRCPU+CEV-QKJNRCPU+C0K</t>
+  </si>
+  <si>
+    <t>ZCDFQ2DJ+SPH-ZCDFQ2DJ+64T-ZCDFQ2DJ+5SJ</t>
+  </si>
+  <si>
+    <t>2XVKWE04+OUL-2XVKWE04+UI1-2XVKWE04+X7G</t>
+  </si>
+  <si>
+    <t>96A47NLR+D3E-96A47NLR+1GW-96A47NLR+VAN</t>
+  </si>
+  <si>
+    <t>DCJ6ES9T+DGP-DCJ6ES9T+DKP-DCJ6ES9T+I2G</t>
+  </si>
+  <si>
+    <t>M93EKIX4+WLH-M93EKIX4+OCT-M93EKIX4+1WP</t>
+  </si>
+  <si>
+    <t>RHCING9Y+RLC-RHCING9Y+6MZ-RHCING9Y+8RH</t>
+  </si>
+  <si>
+    <t>DZW5KVZJ+BO5-DZW5KVZJ+139-DZW5KVZJ+Z6B</t>
+  </si>
+  <si>
+    <t>HMWVEKMN+TN8-HMWVEKMN+7JP-HMWVEKMN+9XL</t>
+  </si>
+  <si>
+    <t>JN0CURU0+2LK-JN0CURU0+V2O-JN0CURU0+BX9</t>
+  </si>
+  <si>
+    <t>TZ5XM247+VHH-TZ5XM247+9YZ-TZ5XM247+GHK</t>
+  </si>
+  <si>
+    <t>HBP4U309+DEN-HBP4U309+DU5-HBP4U309+4NO</t>
+  </si>
+  <si>
+    <t>JO1KCAO8+RTA-JO1KCAO8+JQZ-JO1KCAO8+ZTN</t>
+  </si>
+  <si>
+    <t>Y45Z7S3V+V06-Y45Z7S3V+ZA4-Y45Z7S3V+390</t>
+  </si>
+  <si>
+    <t>Z2M3OZB7+K2P-Z2M3OZB7+GQS-Z2M3OZB7+Z40</t>
+  </si>
+  <si>
+    <t>Q3P3NFUM+X02-Q3P3NFUM+1CG-Q3P3NFUM+IJP</t>
+  </si>
+  <si>
+    <t>174AEIL8+1N9-174AEIL8+E52-174AEIL8+LS7</t>
+  </si>
+  <si>
+    <t>VXL0MH76+EBI-VXL0MH76+PZJ-VXL0MH76+GXM</t>
+  </si>
+  <si>
+    <t>EVOHZSDV+CWJ-EVOHZSDV+4A5-EVOHZSDV+YNV</t>
+  </si>
+  <si>
+    <t>1TKGURTT+RE1-1TKGURTT+LA7-1TKGURTT+T1B</t>
+  </si>
+  <si>
+    <t>AHMSH3QE+CUK-AHMSH3QE+D06-AHMSH3QE+PGY</t>
+  </si>
+  <si>
+    <t>M938UM5Z+ZHT-M938UM5Z+O9Q-M938UM5Z+9WE</t>
+  </si>
+  <si>
+    <t>D6IVZN4S+1VU-D6IVZN4S+JV8-D6IVZN4S+H45</t>
+  </si>
+  <si>
+    <t>GDP5S1RU+39R-GDP5S1RU+3TP-GDP5S1RU+KX4</t>
+  </si>
+  <si>
+    <t>0KALCQFP+BTD-0KALCQFP+01Z-0KALCQFP+NO5</t>
+  </si>
+  <si>
+    <t>OODWEU2W+FI3-OODWEU2W+X2J-OODWEU2W+37E</t>
+  </si>
+  <si>
+    <t>9ZRU892U+3I9-9ZRU892U+JKH-9ZRU892U+0TQ</t>
+  </si>
+  <si>
+    <t>7RUF9M4G+M8Z-7RUF9M4G+I3O-7RUF9M4G+DVO</t>
+  </si>
+  <si>
+    <t>ZNNZ1VAU+TLW-ZNNZ1VAU+DCU-ZNNZ1VAU+O31</t>
+  </si>
+  <si>
+    <t>I0RTROS3+THS-I0RTROS3+SZP-I0RTROS3+NPV</t>
+  </si>
+  <si>
+    <t>REDBXP35+GJF-REDBXP35+07C-REDBXP35+0P5</t>
+  </si>
+  <si>
+    <t>8ZLQP82V+T45-8ZLQP82V+SIZ-8ZLQP82V+R8R</t>
+  </si>
+  <si>
+    <t>O1CTJIR3+D3A-O1CTJIR3+5YL-O1CTJIR3+0DF</t>
+  </si>
+  <si>
+    <t>A8084U0H+4AC-A8084U0H+AVO-A8084U0H+LVF</t>
+  </si>
+  <si>
+    <t>BWN51U7X+XEQ-BWN51U7X+R9O-BWN51U7X+5SG</t>
+  </si>
+  <si>
+    <t>F5WIG3Z5+FDW-F5WIG3Z5+G8A-F5WIG3Z5+FMG</t>
+  </si>
+  <si>
+    <t>GNIO8KQJ+PJL-GNIO8KQJ+R6S-GNIO8KQJ+R7U</t>
+  </si>
+  <si>
+    <t>PKNUMML8+Y1G-PKNUMML8+G9F-PKNUMML8+HSJ</t>
+  </si>
+  <si>
+    <t>KPP5HD2L+IOU-KPP5HD2L+CPA-KPP5HD2L+5HV</t>
+  </si>
+  <si>
+    <t>9ZRNCFUW+39B-9ZRNCFUW+L7T-9ZRNCFUW+RKL</t>
+  </si>
+  <si>
+    <t>KH03I5O8+ZA5-KH03I5O8+YET-KH03I5O8+9D0</t>
+  </si>
+  <si>
+    <t>OZ3XYP1T+X15-OZ3XYP1T+95W-OZ3XYP1T+UZ4</t>
+  </si>
+  <si>
+    <t>UEYSDR8B+Q3R-UEYSDR8B+TQ7-UEYSDR8B+XPM</t>
+  </si>
+  <si>
+    <t>1WJLQWE2+H16-1WJLQWE2+56Z-1WJLQWE2+YKO</t>
+  </si>
+  <si>
+    <t>12CGOCEQ+8OE-12CGOCEQ+1WA-12CGOCEQ+3XK</t>
+  </si>
+  <si>
+    <t>DVK7HEK4+CV0-DVK7HEK4+QCI-DVK7HEK4+ADG</t>
+  </si>
+  <si>
+    <t>N3T8PLXO+LD1-N3T8PLXO+PIH-N3T8PLXO+FBM</t>
+  </si>
+  <si>
+    <t>3L1KVJ5V+YM1-3L1KVJ5V+LI0-3L1KVJ5V+BQ9</t>
+  </si>
+  <si>
+    <t>5620VCNN+BN9-5620VCNN+YBI-5620VCNN+9QN</t>
+  </si>
+  <si>
+    <t>CQZDONVF+ZBN-CQZDONVF+ESL-CQZDONVF+SGS</t>
+  </si>
+  <si>
+    <t>R1RS28YE+KS1-R1RS28YE+NVA-R1RS28YE+PNP</t>
+  </si>
+  <si>
+    <t>BKH1ZBI5+3SX-BKH1ZBI5+ZIZ-BKH1ZBI5+Q9F</t>
+  </si>
+  <si>
+    <t>B4XH84H3+U6N-B4XH84H3+9IW-B4XH84H3+OU6</t>
+  </si>
+  <si>
+    <t>FNYSH1KN+FQY-FNYSH1KN+418-FNYSH1KN+XKY</t>
+  </si>
+  <si>
+    <t>RQEBWKPI+GWH-RQEBWKPI+Q0Y-RQEBWKPI+KCM</t>
+  </si>
+  <si>
+    <t>5D9WY364+H47-5D9WY364+MIT-5D9WY364+0NI</t>
+  </si>
+  <si>
+    <t>74XA61HF+K2F-74XA61HF+8M9-74XA61HF+BCX</t>
+  </si>
+  <si>
+    <t>Y8O7OPBI+988-Y8O7OPBI+7R7-Y8O7OPBI+1VB</t>
+  </si>
+  <si>
+    <t>CDWTS7NQ+P9Q-CDWTS7NQ+HE6-CDWTS7NQ+06F</t>
+  </si>
+  <si>
+    <t>6HH63DBD+KET-6HH63DBD+Z2A-6HH63DBD+30E</t>
+  </si>
+  <si>
+    <t>C4QX9BPT+8HJ-C4QX9BPT+LIN-C4QX9BPT+NI9</t>
+  </si>
+  <si>
+    <t>LWXLCV9O+W66-LWXLCV9O+PR0-LWXLCV9O+4ZH</t>
+  </si>
+  <si>
+    <t>IUK2WHVD+AFF-IUK2WHVD+35U-IUK2WHVD+UWE</t>
+  </si>
+  <si>
+    <t>XZD8XQPQ+143-XZD8XQPQ+YAB-XZD8XQPQ+WNF</t>
+  </si>
+  <si>
+    <t>I5S5778Q+50T-I5S5778Q+QPO-I5S5778Q+FQU</t>
+  </si>
+  <si>
+    <t>7O4BTWL4+D06-7O4BTWL4+0BF-7O4BTWL4+R65</t>
+  </si>
+  <si>
+    <t>8N1AXF8H+TCH-8N1AXF8H+MXQ-8N1AXF8H+6F5</t>
+  </si>
+  <si>
+    <t>P1E3XN33+HIH-P1E3XN33+9HK-P1E3XN33+FWY</t>
+  </si>
+  <si>
+    <t>G64DZGHN+VRX-G64DZGHN+Y77-G64DZGHN+GDB</t>
+  </si>
+  <si>
+    <t>F96PBVF2+5U9-F96PBVF2+PYC-F96PBVF2+S66</t>
+  </si>
+  <si>
+    <t>2OFCG3YD+S35-2OFCG3YD+VGN-2OFCG3YD+6E4</t>
+  </si>
+  <si>
+    <t>FML1QIMD+IPF-FML1QIMD+GDF-FML1QIMD+BYQ</t>
+  </si>
+  <si>
+    <t>ISYNVD5C+2FQ-ISYNVD5C+A2L-ISYNVD5C+3UC</t>
+  </si>
+  <si>
+    <t>ZRYPYXWF+QLM-ZRYPYXWF+JHH-ZRYPYXWF+108</t>
+  </si>
+  <si>
+    <t>1TGQK863+PCG-1TGQK863+HOW-1TGQK863+OEC</t>
+  </si>
+  <si>
+    <t>LBC1Z0RK+1JC-LBC1Z0RK+XGX-LBC1Z0RK+ANS</t>
+  </si>
+  <si>
+    <t>BC1T5U64+220-BC1T5U64+ZIL-BC1T5U64+YF4</t>
+  </si>
+  <si>
+    <t>HOPPZAPP+5J2-HOPPZAPP+9ND-HOPPZAPP+NCF</t>
+  </si>
+  <si>
+    <t>J6SZVUK2+YVD-J6SZVUK2+HN3-J6SZVUK2+U2Z</t>
+  </si>
+  <si>
+    <t>KCIRJU2X+J5D-KCIRJU2X+GIL-KCIRJU2X+WOA</t>
+  </si>
+  <si>
+    <t>059CZXHK+J83-059CZXHK+ZWW-059CZXHK+05X</t>
+  </si>
+  <si>
+    <t>PHLQD3ZG+6JK-PHLQD3ZG+A7Z-PHLQD3ZG+ELB</t>
+  </si>
+  <si>
+    <t>JMX3BB1K+STW-JMX3BB1K+CE2-JMX3BB1K+IP2</t>
+  </si>
+  <si>
+    <t>F4WA3VKD+NIB-F4WA3VKD+469-F4WA3VKD+UV7</t>
+  </si>
+  <si>
+    <t>LDY85YO8+8BK-LDY85YO8+4TD-LDY85YO8+1DB</t>
+  </si>
+  <si>
+    <t>K2NO0FCI+6DG-K2NO0FCI+JV7-K2NO0FCI+4ZX</t>
+  </si>
+  <si>
+    <t>ZP777QJN+BLN-ZP777QJN+ZNG-ZP777QJN+H8M</t>
+  </si>
+  <si>
+    <t>PKDECWHC+0TN-PKDECWHC+GZJ-PKDECWHC+5XQ</t>
+  </si>
+  <si>
+    <t>E622OF4U+E8W-E622OF4U+CS9-E622OF4U+7I0</t>
+  </si>
+  <si>
+    <t>0LIHXDEJ+M2M-0LIHXDEJ+H39-0LIHXDEJ+XJO</t>
+  </si>
+  <si>
+    <t>70L5YJMC+OGB-70L5YJMC+2IU-70L5YJMC+R35</t>
+  </si>
+  <si>
+    <t>SQWZRIK7+7NO-SQWZRIK7+91C-SQWZRIK7+OEC</t>
+  </si>
+  <si>
+    <t>F0WO9UJD+BWV-F0WO9UJD+ZHH-F0WO9UJD+ZH5</t>
+  </si>
+  <si>
+    <t>LO4DR678+37E-LO4DR678+EI2-LO4DR678+HGN</t>
+  </si>
+  <si>
+    <t>QD2NMQDY+VPN-QD2NMQDY+MK8-QD2NMQDY+8S4</t>
+  </si>
+  <si>
+    <t>NN5KROGA+N3O-NN5KROGA+EWD-NN5KROGA+YH1</t>
+  </si>
+  <si>
+    <t>ZI5KX6E9+GG2-ZI5KX6E9+Y1I-ZI5KX6E9+VN5</t>
+  </si>
+  <si>
+    <t>GJAXQ12W+Q2D-GJAXQ12W+6FT-GJAXQ12W+HIU</t>
+  </si>
+  <si>
+    <t>5B16I6KN+HGA-5B16I6KN+XZK-5B16I6KN+SX1</t>
+  </si>
+  <si>
+    <t>JDGT3QNJ+4A9-JDGT3QNJ+E0X-JDGT3QNJ+VFA</t>
+  </si>
+  <si>
+    <t>P86NK3PY+921-P86NK3PY+ELZ-P86NK3PY+BN5</t>
+  </si>
+  <si>
+    <t>BLE8P6WE+X6U-BLE8P6WE+2SE-BLE8P6WE+GOE</t>
+  </si>
+  <si>
+    <t>1FI63GEL+545-1FI63GEL+5EC-1FI63GEL+VMT</t>
+  </si>
+  <si>
+    <t>QRZ4850O+GPP-QRZ4850O+F3S-QRZ4850O+FDD</t>
+  </si>
+  <si>
+    <t>9Z5KCOLS+IBH-9Z5KCOLS+BP2-9Z5KCOLS+6RW</t>
+  </si>
+  <si>
+    <t>3427JI48+GGQ-3427JI48+IS5-3427JI48+MWO</t>
+  </si>
+  <si>
+    <t>FLC69YSJ+FSK-FLC69YSJ+Y2Z-FLC69YSJ+2IN</t>
+  </si>
+  <si>
+    <t>7YB3VN3M+AU4-7YB3VN3M+XQM-7YB3VN3M+54T</t>
+  </si>
+  <si>
+    <t>59BFZ590+1XN-59BFZ590+JSL-59BFZ590+YLA</t>
+  </si>
+  <si>
+    <t>ZV8XPGAR+6ZK-ZV8XPGAR+HVU-ZV8XPGAR+YKF</t>
+  </si>
+  <si>
+    <t>LWZ0JBQV+Z3G-LWZ0JBQV+MJ2-LWZ0JBQV+UWR</t>
+  </si>
+  <si>
+    <t>HG9S499T+YQ0-HG9S499T+TZI-HG9S499T+QPU</t>
+  </si>
+  <si>
+    <t>UKB01J1J+GD3-UKB01J1J+VTX-UKB01J1J+M0T</t>
+  </si>
+  <si>
+    <t>74VPP96I+IFK-74VPP96I+SGB-74VPP96I+BV2</t>
+  </si>
+  <si>
+    <t>TTXT4ALQ+IL5-TTXT4ALQ+T8P-TTXT4ALQ+BFA</t>
+  </si>
+  <si>
+    <t>ZYXVUXUQ+YYT-ZYXVUXUQ+QA7-ZYXVUXUQ+Q1A</t>
+  </si>
+  <si>
+    <t>YL5S5OYD+3Y9-YL5S5OYD+5ME-YL5S5OYD+I8Y</t>
+  </si>
+  <si>
+    <t>WHEUYENB+DF7-WHEUYENB+OSF-WHEUYENB+6WD</t>
+  </si>
+  <si>
+    <t>CK70IEET+39N-CK70IEET+93P-CK70IEET+F0L</t>
+  </si>
+  <si>
+    <t>7ZN6J7T8+449-7ZN6J7T8+NJF-7ZN6J7T8+BM5</t>
+  </si>
+  <si>
+    <t>FF4QLBJ4+XNZ-FF4QLBJ4+BRG-FF4QLBJ4+LL6</t>
+  </si>
+  <si>
+    <t>R5WZMEHA+W7P-R5WZMEHA+VRW-R5WZMEHA+9KP</t>
+  </si>
+  <si>
+    <t>7QS4MILP+7ZN-7QS4MILP+YP1-7QS4MILP+O7U</t>
+  </si>
+  <si>
+    <t>GB7LE1UN+N2S-GB7LE1UN+409-GB7LE1UN+9L1</t>
+  </si>
+  <si>
+    <t>U2ORH1HB+WNR-U2ORH1HB+KQA-U2ORH1HB+8PT</t>
+  </si>
+  <si>
+    <t>S3274789+2WH-S3274789+OOU-S3274789+JMQ</t>
+  </si>
+  <si>
+    <t>UDV00VUY+F8O-UDV00VUY+UJR-UDV00VUY+GQW</t>
+  </si>
+  <si>
+    <t>MKV0KWS2+NEZ-MKV0KWS2+BWD-MKV0KWS2+2XX</t>
+  </si>
+  <si>
+    <t>I48MG36S+4Q3-I48MG36S+ODI-I48MG36S+VND</t>
+  </si>
+  <si>
+    <t>T3HX2I84+D3H-T3HX2I84+KOJ-T3HX2I84+T8A</t>
+  </si>
+  <si>
+    <t>XXQD074A+WHA-XXQD074A+530-XXQD074A+7NC</t>
+  </si>
+  <si>
+    <t>LY899BV0+6Z9-LY899BV0+PIQ-LY899BV0+SWB</t>
+  </si>
+  <si>
+    <t>J0F4EHW1+AG4-J0F4EHW1+C2E-J0F4EHW1+WM7</t>
+  </si>
+  <si>
+    <t>LYSAV091+SZ0-LYSAV091+698-LYSAV091+A66</t>
+  </si>
+  <si>
+    <t>2D2VE9FW+XKN-2D2VE9FW+B8P-2D2VE9FW+S6S</t>
+  </si>
+  <si>
+    <t>WL3NPQDN+31R-WL3NPQDN+2B0-WL3NPQDN+9P1</t>
+  </si>
+  <si>
+    <t>7PEYCKTE+H0Y-7PEYCKTE+9G3-7PEYCKTE+R7W</t>
+  </si>
+  <si>
+    <t>SFDRLV1R+MVZ-SFDRLV1R+ZIN-SFDRLV1R+E4P</t>
+  </si>
+  <si>
+    <t>VPYDGP8R+UBH-VPYDGP8R+NW2-VPYDGP8R+DIC</t>
+  </si>
+  <si>
+    <t>2XUSLO6I+RDT-2XUSLO6I+NWL-2XUSLO6I+UJO</t>
+  </si>
+  <si>
+    <t>KAV64TL1+FU0-KAV64TL1+U3W-KAV64TL1+42E</t>
+  </si>
+  <si>
+    <t>KHR7B739+HII-KHR7B739+8XC-KHR7B739+Y9F</t>
+  </si>
+  <si>
+    <t>S5PLMKFJ+YWR-S5PLMKFJ+4Y3-S5PLMKFJ+JGH</t>
+  </si>
+  <si>
+    <t>CTCA3YU9+XSZ-CTCA3YU9+I3U-CTCA3YU9+1NC</t>
+  </si>
+  <si>
+    <t>X3RPAW4W+REA-X3RPAW4W+FFZ-X3RPAW4W+E4G</t>
+  </si>
+  <si>
+    <t>K7B05V52+419-K7B05V52+Y1W-K7B05V52+V7D</t>
+  </si>
+  <si>
+    <t>RN7FTBAY+XIX-RN7FTBAY+57G-RN7FTBAY+SBU</t>
+  </si>
+  <si>
+    <t>U4NSOGJG+VPD-U4NSOGJG+V6Y-U4NSOGJG+IWK</t>
+  </si>
+  <si>
+    <t>CWLTNYLM+G28-CWLTNYLM+0I0-CWLTNYLM+5K7</t>
+  </si>
+  <si>
+    <t>3ERVN2ET+BXZ-3ERVN2ET+RUI-3ERVN2ET+UN0</t>
+  </si>
+  <si>
+    <t>TQUND4AP+4EE-TQUND4AP+HU1-TQUND4AP+J1I</t>
+  </si>
+  <si>
+    <t>JTE3SL59+67K-JTE3SL59+5X8-JTE3SL59+2M0</t>
+  </si>
+  <si>
+    <t>RH39UIW9+20N-RH39UIW9+RKV-RH39UIW9+KVR</t>
+  </si>
+  <si>
+    <t>WWRTDPD8+4LS-WWRTDPD8+W4T-WWRTDPD8+X64</t>
+  </si>
+  <si>
+    <t>3EZSYSFA+CLM-3EZSYSFA+GTR-3EZSYSFA+O1G</t>
+  </si>
+  <si>
+    <t>68NQRZS7+8S1-68NQRZS7+KXS-68NQRZS7+3XG</t>
+  </si>
+  <si>
+    <t>TF1OFEOK+7BM-TF1OFEOK+YOL-TF1OFEOK+AZ7</t>
+  </si>
+  <si>
+    <t>VDIDW728+VXF-VDIDW728+HYY-VDIDW728+YDU</t>
+  </si>
+  <si>
+    <t>2NONLLB4+HH9-2NONLLB4+0KM-2NONLLB4+96P</t>
+  </si>
+  <si>
+    <t>IPD6IKSW+MXF-IPD6IKSW+JO8-IPD6IKSW+NSU</t>
+  </si>
+  <si>
+    <t>PI4XU02H+YX4-PI4XU02H+CDM-PI4XU02H+AG3</t>
+  </si>
+  <si>
+    <t>CBF7WWLB+5D5-CBF7WWLB+OLG-CBF7WWLB+USA</t>
+  </si>
+  <si>
+    <t>9O9637KM+XQQ-9O9637KM+8Y3-9O9637KM+9R4</t>
+  </si>
+  <si>
+    <t>5TU7XUAH+86F-5TU7XUAH+CY4-5TU7XUAH+5XX</t>
+  </si>
+  <si>
+    <t>6O9XJEWZ+7TP-6O9XJEWZ+C62-6O9XJEWZ+RM3</t>
+  </si>
+  <si>
+    <t>YWYU8CPD+I8F-YWYU8CPD+31F-YWYU8CPD+DPQ</t>
+  </si>
+  <si>
+    <t>PEQ7BBZ5+08L-PEQ7BBZ5+LV1-PEQ7BBZ5+5LY</t>
+  </si>
+  <si>
+    <t>5KZ6OYW1+ZDY-5KZ6OYW1+691-5KZ6OYW1+M46</t>
+  </si>
+  <si>
+    <t>F8ZNG53C+G75-F8ZNG53C+M7P-F8ZNG53C+XS7</t>
+  </si>
+  <si>
+    <t>CB9VCX7T+2LV-CB9VCX7T+0Q8-CB9VCX7T+2XQ</t>
+  </si>
+  <si>
+    <t>7MX5BDUQ+TVB-7MX5BDUQ+D40-7MX5BDUQ+BO1</t>
+  </si>
+  <si>
+    <t>78FKCO1A+Y6O-78FKCO1A+4DV-78FKCO1A+1YX</t>
+  </si>
+  <si>
+    <t>74Z2FNTK+Z8L-74Z2FNTK+0E5-74Z2FNTK+TE8</t>
+  </si>
+  <si>
+    <t>3A8LTEEV+8KB-3A8LTEEV+D3U-3A8LTEEV+55V</t>
+  </si>
+  <si>
+    <t>TLATU761+97Y-TLATU761+UST-TLATU761+2FL</t>
+  </si>
+  <si>
+    <t>9NXXJ2C0+5PT-9NXXJ2C0+K8S-9NXXJ2C0+JM5</t>
+  </si>
+  <si>
+    <t>5DZ1ZH3H+J6K-5DZ1ZH3H+RUM-5DZ1ZH3H+CBH</t>
+  </si>
+  <si>
+    <t>G4WGLH2W+FAK-G4WGLH2W+D3X-G4WGLH2W+TZK</t>
+  </si>
+  <si>
+    <t>DIEDFD1L+TB8-DIEDFD1L+UJS-DIEDFD1L+FOQ</t>
+  </si>
+  <si>
+    <t>N0MEQJ1R+9A7-N0MEQJ1R+5R9-N0MEQJ1R+QTD</t>
+  </si>
+  <si>
+    <t>J046ETV9+ZYP-J046ETV9+ORS-J046ETV9+26Q</t>
+  </si>
+  <si>
+    <t>RZIXKXVC+ZOB-RZIXKXVC+Y9M-RZIXKXVC+JPK</t>
+  </si>
+  <si>
+    <t>NY43KLWK+MM8-NY43KLWK+0DQ-NY43KLWK+BHP</t>
+  </si>
+  <si>
+    <t>CTJIQJH0+TCZ-CTJIQJH0+UKL-CTJIQJH0+APG</t>
+  </si>
+  <si>
+    <t>4NF7UXLK+G2H-4NF7UXLK+GI9-4NF7UXLK+MSQ</t>
+  </si>
+  <si>
+    <t>WPYNWC0W+54C-WPYNWC0W+FTR-WPYNWC0W+UFE</t>
+  </si>
+  <si>
+    <t>BSGDEDBX+N74-BSGDEDBX+X1Z-BSGDEDBX+ZRW</t>
+  </si>
+  <si>
+    <t>ZDQT5T84+1PE-ZDQT5T84+7YJ-ZDQT5T84+MYT</t>
+  </si>
+  <si>
+    <t>1VX2TMXS+63G-1VX2TMXS+AXY-1VX2TMXS+XPG</t>
+  </si>
+  <si>
+    <t>KB05L6EV+HLL-KB05L6EV+BZU-KB05L6EV+UNK</t>
+  </si>
+  <si>
+    <t>F8NNZ22C+941-F8NNZ22C+H8I-F8NNZ22C+XB1</t>
+  </si>
+  <si>
+    <t>LWXAUEVQ+DCU-LWXAUEVQ+71I-LWXAUEVQ+SGG</t>
+  </si>
+  <si>
+    <t>CVI20ZAD+AJ8-CVI20ZAD+H0M-CVI20ZAD+X57</t>
+  </si>
+  <si>
+    <t>EI4WG0T3+SUR-EI4WG0T3+8EU-EI4WG0T3+LTT</t>
+  </si>
+  <si>
+    <t>WNCWSHXH+FCQ-WNCWSHXH+CAM-WNCWSHXH+1QK</t>
+  </si>
+  <si>
+    <t>LPTLKHOM+VUN-LPTLKHOM+AO2-LPTLKHOM+XHO</t>
+  </si>
+  <si>
+    <t>GZWLXDER+ZYM-GZWLXDER+QF4-GZWLXDER+FXF</t>
+  </si>
+  <si>
+    <t>E037I2P2+XZY-E037I2P2+672-E037I2P2+427</t>
+  </si>
+  <si>
+    <t>Z9SQIZYH+0SQ-Z9SQIZYH+5W7-Z9SQIZYH+W04</t>
+  </si>
+  <si>
+    <t>DXS6YBBG+Q5G-DXS6YBBG+U93-DXS6YBBG+99I</t>
+  </si>
+  <si>
+    <t>LXRNTRVJ+JYO-LXRNTRVJ+PCU-LXRNTRVJ+C8H</t>
+  </si>
+  <si>
+    <t>K5YYXHI9+IIS-K5YYXHI9+LSM-K5YYXHI9+BQ8</t>
+  </si>
+  <si>
+    <t>PFW9ICPI+36D-PFW9ICPI+VCW-PFW9ICPI+VUM</t>
+  </si>
+  <si>
+    <t>HWHM4AO0+WMX-HWHM4AO0+3XZ-HWHM4AO0+RKZ</t>
+  </si>
+  <si>
+    <t>ZYOT5IYM+O3M-ZYOT5IYM+PU3-ZYOT5IYM+5YF</t>
+  </si>
+  <si>
+    <t>R3XKN9JV+HCV-R3XKN9JV+DFE-R3XKN9JV+4TB</t>
+  </si>
+  <si>
+    <t>30ODOUKS+EE5-30ODOUKS+QM6-30ODOUKS+1RD</t>
+  </si>
+  <si>
+    <t>WAI8LY1C+AO4-WAI8LY1C+CVF-WAI8LY1C+RIG</t>
+  </si>
+  <si>
+    <t>33XQGN2C+9IM-33XQGN2C+EBQ-33XQGN2C+HPJ</t>
+  </si>
+  <si>
+    <t>0GJK8BDR+KMQ-0GJK8BDR+1Y4-0GJK8BDR+0U6</t>
+  </si>
+  <si>
+    <t>0Y2383QF+OFW-0Y2383QF+Z98-0Y2383QF+1R8</t>
+  </si>
+  <si>
+    <t>B0SYZWUR+BL8-B0SYZWUR+XX4-B0SYZWUR+VBO</t>
+  </si>
+  <si>
+    <t>BB29KHZ6+JOW-BB29KHZ6+2WJ-BB29KHZ6+APR</t>
+  </si>
+  <si>
+    <t>M5QCN237+OR5-M5QCN237+5YF-M5QCN237+XV9</t>
   </si>
 </sst>
 </file>
@@ -6795,8 +6804,8 @@
   </sheetPr>
   <dimension ref="A1:W679"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B679"/>
+    <sheetView tabSelected="1" topLeftCell="A474" workbookViewId="0">
+      <selection activeCell="C513" sqref="C513"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -16139,7 +16148,7 @@
         <v>135520</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1669</v>
+        <v>1750</v>
       </c>
       <c r="C133" t="s">
         <v>22</v>
@@ -16210,7 +16219,7 @@
         <v>451449</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1750</v>
+        <v>1751</v>
       </c>
       <c r="C134" t="s">
         <v>22</v>
@@ -16281,7 +16290,7 @@
         <v>280727</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1751</v>
+        <v>1752</v>
       </c>
       <c r="C135" t="s">
         <v>22</v>
@@ -16352,7 +16361,7 @@
         <v>164446</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1752</v>
+        <v>1753</v>
       </c>
       <c r="C136" t="s">
         <v>22</v>
@@ -16423,7 +16432,7 @@
         <v>524035</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1753</v>
+        <v>1754</v>
       </c>
       <c r="C137" t="s">
         <v>22</v>
@@ -16494,7 +16503,7 @@
         <v>488817</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1754</v>
+        <v>1755</v>
       </c>
       <c r="C138" t="s">
         <v>22</v>
@@ -16565,7 +16574,7 @@
         <v>20351</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1755</v>
+        <v>1756</v>
       </c>
       <c r="C139" t="s">
         <v>22</v>
@@ -16636,7 +16645,7 @@
         <v>345544</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1756</v>
+        <v>1757</v>
       </c>
       <c r="C140" t="s">
         <v>22</v>
@@ -16707,7 +16716,7 @@
         <v>553555</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1757</v>
+        <v>1758</v>
       </c>
       <c r="C141" t="s">
         <v>22</v>
@@ -16778,7 +16787,7 @@
         <v>819782</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1758</v>
+        <v>1759</v>
       </c>
       <c r="C142" t="s">
         <v>22</v>
@@ -16849,7 +16858,7 @@
         <v>156342</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1759</v>
+        <v>1760</v>
       </c>
       <c r="C143" t="s">
         <v>22</v>
@@ -16920,7 +16929,7 @@
         <v>676634</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1760</v>
+        <v>1761</v>
       </c>
       <c r="C144" t="s">
         <v>22</v>
@@ -16991,7 +17000,7 @@
         <v>571480</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1761</v>
+        <v>1762</v>
       </c>
       <c r="C145" t="s">
         <v>22</v>
@@ -17062,7 +17071,7 @@
         <v>645072</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1762</v>
+        <v>1763</v>
       </c>
       <c r="C146" t="s">
         <v>22</v>
@@ -17133,7 +17142,7 @@
         <v>708329</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1763</v>
+        <v>1764</v>
       </c>
       <c r="C147" t="s">
         <v>22</v>
@@ -17204,7 +17213,7 @@
         <v>195065</v>
       </c>
       <c r="B148" s="2" t="s">
-        <v>1764</v>
+        <v>1765</v>
       </c>
       <c r="C148" t="s">
         <v>22</v>
@@ -17275,7 +17284,7 @@
         <v>910967</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="C149" t="s">
         <v>22</v>
@@ -17343,7 +17352,7 @@
         <v>127351</v>
       </c>
       <c r="B150" s="2" t="s">
-        <v>1766</v>
+        <v>1767</v>
       </c>
       <c r="C150" t="s">
         <v>22</v>
@@ -17414,7 +17423,7 @@
         <v>785920</v>
       </c>
       <c r="B151" s="2" t="s">
-        <v>1767</v>
+        <v>1768</v>
       </c>
       <c r="C151" t="s">
         <v>22</v>
@@ -17485,7 +17494,7 @@
         <v>402046</v>
       </c>
       <c r="B152" s="2" t="s">
-        <v>1768</v>
+        <v>1769</v>
       </c>
       <c r="C152" t="s">
         <v>22</v>
@@ -17553,7 +17562,7 @@
         <v>906141</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1769</v>
+        <v>1770</v>
       </c>
       <c r="C153" t="s">
         <v>22</v>
@@ -17624,7 +17633,7 @@
         <v>959804</v>
       </c>
       <c r="B154" s="2" t="s">
-        <v>1770</v>
+        <v>1771</v>
       </c>
       <c r="C154" t="s">
         <v>22</v>
@@ -17695,7 +17704,7 @@
         <v>876790</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>1771</v>
+        <v>1772</v>
       </c>
       <c r="C155" t="s">
         <v>22</v>
@@ -17766,7 +17775,7 @@
         <v>363775</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1772</v>
+        <v>1773</v>
       </c>
       <c r="C156" t="s">
         <v>22</v>
@@ -17837,7 +17846,7 @@
         <v>644183</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>1773</v>
+        <v>1774</v>
       </c>
       <c r="C157" t="s">
         <v>22</v>
@@ -17908,7 +17917,7 @@
         <v>220429</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1774</v>
+        <v>1775</v>
       </c>
       <c r="C158" t="s">
         <v>22</v>
@@ -17979,7 +17988,7 @@
         <v>540944</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1775</v>
+        <v>1776</v>
       </c>
       <c r="C159" t="s">
         <v>22</v>
@@ -18050,7 +18059,7 @@
         <v>164128</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1776</v>
+        <v>1777</v>
       </c>
       <c r="C160" t="s">
         <v>22</v>
@@ -18121,7 +18130,7 @@
         <v>469738</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1777</v>
+        <v>1778</v>
       </c>
       <c r="C161" t="s">
         <v>22</v>
@@ -18189,7 +18198,7 @@
         <v>36694</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1778</v>
+        <v>1779</v>
       </c>
       <c r="C162" t="s">
         <v>22</v>
@@ -18260,7 +18269,7 @@
         <v>157759</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1779</v>
+        <v>1780</v>
       </c>
       <c r="C163" t="s">
         <v>22</v>
@@ -18331,7 +18340,7 @@
         <v>732145</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1780</v>
+        <v>1781</v>
       </c>
       <c r="C164" t="s">
         <v>22</v>
@@ -18402,7 +18411,7 @@
         <v>566282</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1781</v>
+        <v>1782</v>
       </c>
       <c r="C165" t="s">
         <v>22</v>
@@ -18473,7 +18482,7 @@
         <v>858751</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1782</v>
+        <v>1783</v>
       </c>
       <c r="C166" t="s">
         <v>22</v>
@@ -18544,7 +18553,7 @@
         <v>917860</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1783</v>
+        <v>1784</v>
       </c>
       <c r="C167" t="s">
         <v>22</v>
@@ -18615,7 +18624,7 @@
         <v>232790</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1784</v>
+        <v>1785</v>
       </c>
       <c r="C168" t="s">
         <v>22</v>
@@ -18686,7 +18695,7 @@
         <v>537591</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1785</v>
+        <v>1786</v>
       </c>
       <c r="C169" t="s">
         <v>22</v>
@@ -18757,7 +18766,7 @@
         <v>93971</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1786</v>
+        <v>1787</v>
       </c>
       <c r="C170" t="s">
         <v>22</v>
@@ -18828,7 +18837,7 @@
         <v>523768</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1787</v>
+        <v>1788</v>
       </c>
       <c r="C171" t="s">
         <v>22</v>
@@ -18899,7 +18908,7 @@
         <v>401906</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1788</v>
+        <v>1789</v>
       </c>
       <c r="C172" t="s">
         <v>22</v>
@@ -18970,7 +18979,7 @@
         <v>304662</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>1789</v>
+        <v>1790</v>
       </c>
       <c r="C173" t="s">
         <v>22</v>
@@ -19041,7 +19050,7 @@
         <v>121123</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>1790</v>
+        <v>1791</v>
       </c>
       <c r="C174" t="s">
         <v>22</v>
@@ -19109,7 +19118,7 @@
         <v>150072</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>1791</v>
+        <v>1792</v>
       </c>
       <c r="C175" t="s">
         <v>22</v>
@@ -19180,7 +19189,7 @@
         <v>28438</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>1792</v>
+        <v>1793</v>
       </c>
       <c r="C176" t="s">
         <v>22</v>
@@ -19251,7 +19260,7 @@
         <v>778071</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>1793</v>
+        <v>1794</v>
       </c>
       <c r="C177" t="s">
         <v>22</v>
@@ -19319,7 +19328,7 @@
         <v>822135</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>1794</v>
+        <v>1795</v>
       </c>
       <c r="C178" t="s">
         <v>22</v>
@@ -19387,7 +19396,7 @@
         <v>671960</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>1795</v>
+        <v>1796</v>
       </c>
       <c r="C179" t="s">
         <v>22</v>
@@ -19458,7 +19467,7 @@
         <v>642565</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>1796</v>
+        <v>1797</v>
       </c>
       <c r="C180" t="s">
         <v>22</v>
@@ -19529,7 +19538,7 @@
         <v>534832</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>1797</v>
+        <v>1798</v>
       </c>
       <c r="C181" t="s">
         <v>22</v>
@@ -19600,7 +19609,7 @@
         <v>699930</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>1798</v>
+        <v>1799</v>
       </c>
       <c r="C182" t="s">
         <v>22</v>
@@ -19668,7 +19677,7 @@
         <v>509592</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>1799</v>
+        <v>1800</v>
       </c>
       <c r="C183" t="s">
         <v>22</v>
@@ -19739,7 +19748,7 @@
         <v>270716</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>1800</v>
+        <v>1801</v>
       </c>
       <c r="C184" t="s">
         <v>22</v>
@@ -19807,7 +19816,7 @@
         <v>707848</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>1801</v>
+        <v>1802</v>
       </c>
       <c r="C185" t="s">
         <v>22</v>
@@ -19878,7 +19887,7 @@
         <v>708095</v>
       </c>
       <c r="B186" s="2" t="s">
-        <v>1802</v>
+        <v>1803</v>
       </c>
       <c r="C186" t="s">
         <v>22</v>
@@ -19949,7 +19958,7 @@
         <v>278548</v>
       </c>
       <c r="B187" s="2" t="s">
-        <v>1803</v>
+        <v>1804</v>
       </c>
       <c r="C187" t="s">
         <v>22</v>
@@ -20020,7 +20029,7 @@
         <v>926633</v>
       </c>
       <c r="B188" s="2" t="s">
-        <v>1804</v>
+        <v>1805</v>
       </c>
       <c r="C188" t="s">
         <v>22</v>
@@ -20091,7 +20100,7 @@
         <v>676774</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>1805</v>
+        <v>1806</v>
       </c>
       <c r="C189" t="s">
         <v>22</v>
@@ -20162,7 +20171,7 @@
         <v>746576</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>1806</v>
+        <v>1807</v>
       </c>
       <c r="C190" t="s">
         <v>22</v>
@@ -20233,7 +20242,7 @@
         <v>680847</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>1807</v>
+        <v>1808</v>
       </c>
       <c r="C191" t="s">
         <v>22</v>
@@ -20304,7 +20313,7 @@
         <v>631098</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>1808</v>
+        <v>1809</v>
       </c>
       <c r="C192" t="s">
         <v>22</v>
@@ -20375,7 +20384,7 @@
         <v>46691</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>1809</v>
+        <v>1810</v>
       </c>
       <c r="C193" t="s">
         <v>22</v>
@@ -20443,7 +20452,7 @@
         <v>290705</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>1810</v>
+        <v>1811</v>
       </c>
       <c r="C194" t="s">
         <v>22</v>
@@ -20511,7 +20520,7 @@
         <v>686554</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>1811</v>
+        <v>1812</v>
       </c>
       <c r="C195" t="s">
         <v>22</v>
@@ -20579,7 +20588,7 @@
         <v>758939</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>1812</v>
+        <v>1813</v>
       </c>
       <c r="C196" t="s">
         <v>22</v>
@@ -20650,7 +20659,7 @@
         <v>802259</v>
       </c>
       <c r="B197" s="2" t="s">
-        <v>1813</v>
+        <v>1814</v>
       </c>
       <c r="C197" t="s">
         <v>22</v>
@@ -20721,7 +20730,7 @@
         <v>813796</v>
       </c>
       <c r="B198" s="2" t="s">
-        <v>1814</v>
+        <v>1815</v>
       </c>
       <c r="C198" t="s">
         <v>22</v>
@@ -20792,7 +20801,7 @@
         <v>289383</v>
       </c>
       <c r="B199" s="2" t="s">
-        <v>1815</v>
+        <v>1816</v>
       </c>
       <c r="C199" t="s">
         <v>22</v>
@@ -20860,7 +20869,7 @@
         <v>808993</v>
       </c>
       <c r="B200" s="2" t="s">
-        <v>1816</v>
+        <v>1817</v>
       </c>
       <c r="C200" t="s">
         <v>22</v>
@@ -20931,7 +20940,7 @@
         <v>361488</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>1817</v>
+        <v>1818</v>
       </c>
       <c r="C201" t="s">
         <v>22</v>
@@ -20999,7 +21008,7 @@
         <v>813817</v>
       </c>
       <c r="B202" s="2" t="s">
-        <v>1818</v>
+        <v>1819</v>
       </c>
       <c r="C202" t="s">
         <v>22</v>
@@ -21067,7 +21076,7 @@
         <v>209218</v>
       </c>
       <c r="B203" s="2" t="s">
-        <v>1819</v>
+        <v>1820</v>
       </c>
       <c r="C203" t="s">
         <v>22</v>
@@ -21138,7 +21147,7 @@
         <v>749920</v>
       </c>
       <c r="B204" s="2" t="s">
-        <v>1820</v>
+        <v>1821</v>
       </c>
       <c r="C204" t="s">
         <v>22</v>
@@ -21209,7 +21218,7 @@
         <v>716506</v>
       </c>
       <c r="B205" s="2" t="s">
-        <v>1821</v>
+        <v>1822</v>
       </c>
       <c r="C205" t="s">
         <v>22</v>
@@ -21280,7 +21289,7 @@
         <v>648985</v>
       </c>
       <c r="B206" s="2" t="s">
-        <v>1822</v>
+        <v>1823</v>
       </c>
       <c r="C206" t="s">
         <v>22</v>
@@ -21348,7 +21357,7 @@
         <v>607185</v>
       </c>
       <c r="B207" s="2" t="s">
-        <v>1823</v>
+        <v>1824</v>
       </c>
       <c r="C207" t="s">
         <v>22</v>
@@ -21419,7 +21428,7 @@
         <v>612061</v>
       </c>
       <c r="B208" s="2" t="s">
-        <v>1824</v>
+        <v>1825</v>
       </c>
       <c r="C208" t="s">
         <v>22</v>
@@ -21487,7 +21496,7 @@
         <v>876895</v>
       </c>
       <c r="B209" s="2" t="s">
-        <v>1825</v>
+        <v>1826</v>
       </c>
       <c r="C209" t="s">
         <v>22</v>
@@ -21555,7 +21564,7 @@
         <v>143430</v>
       </c>
       <c r="B210" s="2" t="s">
-        <v>1826</v>
+        <v>1827</v>
       </c>
       <c r="C210" t="s">
         <v>22</v>
@@ -21626,7 +21635,7 @@
         <v>408306</v>
       </c>
       <c r="B211" s="2" t="s">
-        <v>1827</v>
+        <v>1828</v>
       </c>
       <c r="C211" t="s">
         <v>22</v>
@@ -21697,7 +21706,7 @@
         <v>215907</v>
       </c>
       <c r="B212" s="2" t="s">
-        <v>1828</v>
+        <v>1829</v>
       </c>
       <c r="C212" t="s">
         <v>22</v>
@@ -21768,7 +21777,7 @@
         <v>740068</v>
       </c>
       <c r="B213" s="2" t="s">
-        <v>1829</v>
+        <v>1830</v>
       </c>
       <c r="C213" t="s">
         <v>22</v>
@@ -21839,7 +21848,7 @@
         <v>220178</v>
       </c>
       <c r="B214" s="2" t="s">
-        <v>1830</v>
+        <v>1831</v>
       </c>
       <c r="C214" t="s">
         <v>22</v>
@@ -21910,7 +21919,7 @@
         <v>97365</v>
       </c>
       <c r="B215" s="2" t="s">
-        <v>1831</v>
+        <v>1832</v>
       </c>
       <c r="C215" t="s">
         <v>22</v>
@@ -21981,7 +21990,7 @@
         <v>720471</v>
       </c>
       <c r="B216" s="2" t="s">
-        <v>1832</v>
+        <v>1833</v>
       </c>
       <c r="C216" t="s">
         <v>22</v>
@@ -22052,7 +22061,7 @@
         <v>504245</v>
       </c>
       <c r="B217" s="2" t="s">
-        <v>1833</v>
+        <v>1834</v>
       </c>
       <c r="C217" t="s">
         <v>22</v>
@@ -22120,7 +22129,7 @@
         <v>360509</v>
       </c>
       <c r="B218" s="2" t="s">
-        <v>1834</v>
+        <v>1835</v>
       </c>
       <c r="C218" t="s">
         <v>22</v>
@@ -22188,7 +22197,7 @@
         <v>889981</v>
       </c>
       <c r="B219" s="2" t="s">
-        <v>1835</v>
+        <v>1836</v>
       </c>
       <c r="C219" t="s">
         <v>22</v>
@@ -22259,7 +22268,7 @@
         <v>291938</v>
       </c>
       <c r="B220" s="2" t="s">
-        <v>1836</v>
+        <v>1837</v>
       </c>
       <c r="C220" t="s">
         <v>22</v>
@@ -22330,7 +22339,7 @@
         <v>854054</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>1837</v>
+        <v>1838</v>
       </c>
       <c r="C221" t="s">
         <v>22</v>
@@ -22401,7 +22410,7 @@
         <v>151446</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>1838</v>
+        <v>1839</v>
       </c>
       <c r="C222" t="s">
         <v>22</v>
@@ -22472,7 +22481,7 @@
         <v>959429</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>1839</v>
+        <v>1840</v>
       </c>
       <c r="C223" t="s">
         <v>22</v>
@@ -22543,7 +22552,7 @@
         <v>102843</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>1840</v>
+        <v>1841</v>
       </c>
       <c r="C224" t="s">
         <v>22</v>
@@ -22614,7 +22623,7 @@
         <v>784197</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>1841</v>
+        <v>1842</v>
       </c>
       <c r="C225" t="s">
         <v>22</v>
@@ -22685,7 +22694,7 @@
         <v>476049</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>1842</v>
+        <v>1843</v>
       </c>
       <c r="C226" t="s">
         <v>22</v>
@@ -22756,7 +22765,7 @@
         <v>236201</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>1843</v>
+        <v>1844</v>
       </c>
       <c r="C227" t="s">
         <v>22</v>
@@ -22827,7 +22836,7 @@
         <v>682039</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>1844</v>
+        <v>1845</v>
       </c>
       <c r="C228" t="s">
         <v>22</v>
@@ -22898,7 +22907,7 @@
         <v>551752</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>1845</v>
+        <v>1846</v>
       </c>
       <c r="C229" t="s">
         <v>22</v>
@@ -22966,7 +22975,7 @@
         <v>882635</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>1846</v>
+        <v>1847</v>
       </c>
       <c r="C230" t="s">
         <v>22</v>
@@ -23037,7 +23046,7 @@
         <v>741441</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>1847</v>
+        <v>1848</v>
       </c>
       <c r="C231" t="s">
         <v>22</v>
@@ -23108,7 +23117,7 @@
         <v>262189</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>1848</v>
+        <v>1849</v>
       </c>
       <c r="C232" t="s">
         <v>22</v>
@@ -23179,7 +23188,7 @@
         <v>487930</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>1849</v>
+        <v>1850</v>
       </c>
       <c r="C233" t="s">
         <v>22</v>
@@ -23250,7 +23259,7 @@
         <v>78711</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>1850</v>
+        <v>1851</v>
       </c>
       <c r="C234" t="s">
         <v>22</v>
@@ -23321,7 +23330,7 @@
         <v>471337</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>1851</v>
+        <v>1852</v>
       </c>
       <c r="C235" t="s">
         <v>22</v>
@@ -23392,7 +23401,7 @@
         <v>401117</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>1852</v>
+        <v>1853</v>
       </c>
       <c r="C236" t="s">
         <v>22</v>
@@ -23463,7 +23472,7 @@
         <v>634829</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>1853</v>
+        <v>1854</v>
       </c>
       <c r="C237" t="s">
         <v>22</v>
@@ -23534,7 +23543,7 @@
         <v>814880</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>1854</v>
+        <v>1855</v>
       </c>
       <c r="C238" t="s">
         <v>22</v>
@@ -23602,7 +23611,7 @@
         <v>693127</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>1855</v>
+        <v>1856</v>
       </c>
       <c r="C239" t="s">
         <v>22</v>
@@ -23673,7 +23682,7 @@
         <v>959006</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>1856</v>
+        <v>1857</v>
       </c>
       <c r="C240" t="s">
         <v>22</v>
@@ -23744,7 +23753,7 @@
         <v>249395</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>1857</v>
+        <v>1858</v>
       </c>
       <c r="C241" t="s">
         <v>22</v>
@@ -23815,7 +23824,7 @@
         <v>915168</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>1858</v>
+        <v>1859</v>
       </c>
       <c r="C242" t="s">
         <v>22</v>
@@ -23886,7 +23895,7 @@
         <v>496335</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>1859</v>
+        <v>1860</v>
       </c>
       <c r="C243" t="s">
         <v>22</v>
@@ -23954,7 +23963,7 @@
         <v>696736</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>1860</v>
+        <v>1861</v>
       </c>
       <c r="C244" t="s">
         <v>22</v>
@@ -24025,7 +24034,7 @@
         <v>957697</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>1861</v>
+        <v>1862</v>
       </c>
       <c r="C245" t="s">
         <v>22</v>
@@ -24096,7 +24105,7 @@
         <v>33455</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>1862</v>
+        <v>1863</v>
       </c>
       <c r="C246" t="s">
         <v>22</v>
@@ -24164,7 +24173,7 @@
         <v>422205</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>1863</v>
+        <v>1864</v>
       </c>
       <c r="C247" t="s">
         <v>22</v>
@@ -24232,7 +24241,7 @@
         <v>617370</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>1864</v>
+        <v>1865</v>
       </c>
       <c r="C248" t="s">
         <v>22</v>
@@ -24303,7 +24312,7 @@
         <v>473130</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>1865</v>
+        <v>1866</v>
       </c>
       <c r="C249" t="s">
         <v>22</v>
@@ -24371,7 +24380,7 @@
         <v>56483</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>1866</v>
+        <v>1867</v>
       </c>
       <c r="C250" t="s">
         <v>22</v>
@@ -24439,7 +24448,7 @@
         <v>806403</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>1867</v>
+        <v>1868</v>
       </c>
       <c r="C251" t="s">
         <v>22</v>
@@ -24507,7 +24516,7 @@
         <v>559021</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>1868</v>
+        <v>1869</v>
       </c>
       <c r="C252" t="s">
         <v>22</v>
@@ -24578,7 +24587,7 @@
         <v>345503</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>1869</v>
+        <v>1870</v>
       </c>
       <c r="C253" t="s">
         <v>22</v>
@@ -24646,7 +24655,7 @@
         <v>236898</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>1870</v>
+        <v>1871</v>
       </c>
       <c r="C254" t="s">
         <v>22</v>
@@ -24717,7 +24726,7 @@
         <v>331941</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>1871</v>
+        <v>1872</v>
       </c>
       <c r="C255" t="s">
         <v>22</v>
@@ -24788,7 +24797,7 @@
         <v>833705</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>1872</v>
+        <v>1873</v>
       </c>
       <c r="C256" t="s">
         <v>22</v>
@@ -24856,7 +24865,7 @@
         <v>408146</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>1873</v>
+        <v>1874</v>
       </c>
       <c r="C257" t="s">
         <v>22</v>
@@ -24927,7 +24936,7 @@
         <v>888479</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>1874</v>
+        <v>1875</v>
       </c>
       <c r="C258" t="s">
         <v>22</v>
@@ -24998,7 +25007,7 @@
         <v>162997</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>1875</v>
+        <v>1876</v>
       </c>
       <c r="C259" t="s">
         <v>22</v>
@@ -25069,7 +25078,7 @@
         <v>296055</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>1876</v>
+        <v>1877</v>
       </c>
       <c r="C260" t="s">
         <v>22</v>
@@ -25137,7 +25146,7 @@
         <v>396307</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>1877</v>
+        <v>1878</v>
       </c>
       <c r="C261" t="s">
         <v>22</v>
@@ -25205,7 +25214,7 @@
         <v>347728</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>1878</v>
+        <v>1879</v>
       </c>
       <c r="C262" t="s">
         <v>22</v>
@@ -25273,7 +25282,7 @@
         <v>547672</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>1879</v>
+        <v>1880</v>
       </c>
       <c r="C263" t="s">
         <v>22</v>
@@ -25341,7 +25350,7 @@
         <v>41211</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>1880</v>
+        <v>1881</v>
       </c>
       <c r="C264" t="s">
         <v>22</v>
@@ -25412,7 +25421,7 @@
         <v>371740</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>1881</v>
+        <v>1882</v>
       </c>
       <c r="C265" t="s">
         <v>22</v>
@@ -25480,7 +25489,7 @@
         <v>148524</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>1882</v>
+        <v>1883</v>
       </c>
       <c r="C266" t="s">
         <v>22</v>
@@ -25548,7 +25557,7 @@
         <v>138596</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>1883</v>
+        <v>1884</v>
       </c>
       <c r="C267" t="s">
         <v>22</v>
@@ -25616,7 +25625,7 @@
         <v>706657</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>1884</v>
+        <v>1885</v>
       </c>
       <c r="C268" t="s">
         <v>22</v>
@@ -25684,7 +25693,7 @@
         <v>407457</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>1885</v>
+        <v>1886</v>
       </c>
       <c r="C269" t="s">
         <v>22</v>
@@ -25752,7 +25761,7 @@
         <v>263885</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>1886</v>
+        <v>1887</v>
       </c>
       <c r="C270" t="s">
         <v>22</v>
@@ -25823,7 +25832,7 @@
         <v>56338</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>1887</v>
+        <v>1888</v>
       </c>
       <c r="C271" t="s">
         <v>22</v>
@@ -25891,7 +25900,7 @@
         <v>318232</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>1888</v>
+        <v>1889</v>
       </c>
       <c r="C272" t="s">
         <v>22</v>
@@ -25962,7 +25971,7 @@
         <v>325920</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>1889</v>
+        <v>1890</v>
       </c>
       <c r="C273" t="s">
         <v>22</v>
@@ -26033,7 +26042,7 @@
         <v>665836</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>1890</v>
+        <v>1891</v>
       </c>
       <c r="C274" t="s">
         <v>22</v>
@@ -26104,7 +26113,7 @@
         <v>525207</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>1891</v>
+        <v>1892</v>
       </c>
       <c r="C275" t="s">
         <v>22</v>
@@ -26172,7 +26181,7 @@
         <v>4317</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>1892</v>
+        <v>1893</v>
       </c>
       <c r="C276" t="s">
         <v>22</v>
@@ -26240,7 +26249,7 @@
         <v>442216</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>1893</v>
+        <v>1894</v>
       </c>
       <c r="C277" t="s">
         <v>22</v>
@@ -26308,7 +26317,7 @@
         <v>205545</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>1894</v>
+        <v>1895</v>
       </c>
       <c r="C278" t="s">
         <v>22</v>
@@ -26376,7 +26385,7 @@
         <v>896243</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>1895</v>
+        <v>1896</v>
       </c>
       <c r="C279" t="s">
         <v>22</v>
@@ -26447,7 +26456,7 @@
         <v>792322</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>1896</v>
+        <v>1897</v>
       </c>
       <c r="C280" t="s">
         <v>22</v>
@@ -26515,7 +26524,7 @@
         <v>479099</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>1897</v>
+        <v>1898</v>
       </c>
       <c r="C281" t="s">
         <v>22</v>
@@ -26583,7 +26592,7 @@
         <v>682615</v>
       </c>
       <c r="B282" s="2" t="s">
-        <v>1898</v>
+        <v>1899</v>
       </c>
       <c r="C282" t="s">
         <v>22</v>
@@ -26654,7 +26663,7 @@
         <v>208993</v>
       </c>
       <c r="B283" s="2" t="s">
-        <v>1899</v>
+        <v>1900</v>
       </c>
       <c r="C283" t="s">
         <v>22</v>
@@ -26722,7 +26731,7 @@
         <v>973489</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>1900</v>
+        <v>1901</v>
       </c>
       <c r="C284" t="s">
         <v>22</v>
@@ -26790,7 +26799,7 @@
         <v>230002</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>1901</v>
+        <v>1902</v>
       </c>
       <c r="C285" t="s">
         <v>22</v>
@@ -26858,7 +26867,7 @@
         <v>989138</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>1902</v>
+        <v>1903</v>
       </c>
       <c r="C286" t="s">
         <v>22</v>
@@ -26926,7 +26935,7 @@
         <v>863542</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>1903</v>
+        <v>1904</v>
       </c>
       <c r="C287" t="s">
         <v>22</v>
@@ -26997,7 +27006,7 @@
         <v>792185</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>1904</v>
+        <v>1905</v>
       </c>
       <c r="C288" t="s">
         <v>22</v>
@@ -27068,7 +27077,7 @@
         <v>307457</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>1905</v>
+        <v>1906</v>
       </c>
       <c r="C289" t="s">
         <v>22</v>
@@ -27136,7 +27145,7 @@
         <v>934034</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>1906</v>
+        <v>1907</v>
       </c>
       <c r="C290" t="s">
         <v>22</v>
@@ -27204,7 +27213,7 @@
         <v>8556</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>1907</v>
+        <v>1908</v>
       </c>
       <c r="C291" t="s">
         <v>22</v>
@@ -27275,7 +27284,7 @@
         <v>699994</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>1908</v>
+        <v>1909</v>
       </c>
       <c r="C292" t="s">
         <v>22</v>
@@ -27343,7 +27352,7 @@
         <v>956582</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>1909</v>
+        <v>1910</v>
       </c>
       <c r="C293" t="s">
         <v>22</v>
@@ -27411,7 +27420,7 @@
         <v>442056</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>1910</v>
+        <v>1911</v>
       </c>
       <c r="C294" t="s">
         <v>22</v>
@@ -27482,7 +27491,7 @@
         <v>270118</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>1911</v>
+        <v>1912</v>
       </c>
       <c r="C295" t="s">
         <v>22</v>
@@ -27553,7 +27562,7 @@
         <v>649253</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>1912</v>
+        <v>1913</v>
       </c>
       <c r="C296" t="s">
         <v>22</v>
@@ -27624,7 +27633,7 @@
         <v>969695</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>1913</v>
+        <v>1914</v>
       </c>
       <c r="C297" t="s">
         <v>22</v>
@@ -27695,7 +27704,7 @@
         <v>771485</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>1914</v>
+        <v>1915</v>
       </c>
       <c r="C298" t="s">
         <v>22</v>
@@ -27763,7 +27772,7 @@
         <v>62276</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>1915</v>
+        <v>1916</v>
       </c>
       <c r="C299" t="s">
         <v>22</v>
@@ -27831,7 +27840,7 @@
         <v>375255</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>1916</v>
+        <v>1917</v>
       </c>
       <c r="C300" t="s">
         <v>22</v>
@@ -27902,7 +27911,7 @@
         <v>18710</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>1917</v>
+        <v>1918</v>
       </c>
       <c r="C301" t="s">
         <v>22</v>
@@ -27970,7 +27979,7 @@
         <v>694346</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>1918</v>
+        <v>1919</v>
       </c>
       <c r="C302" t="s">
         <v>22</v>
@@ -28038,7 +28047,7 @@
         <v>447132</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>1919</v>
+        <v>1920</v>
       </c>
       <c r="C303" t="s">
         <v>22</v>
@@ -28106,7 +28115,7 @@
         <v>676091</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>1920</v>
+        <v>1921</v>
       </c>
       <c r="C304" t="s">
         <v>22</v>
@@ -28177,7 +28186,7 @@
         <v>819157</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>1921</v>
+        <v>1922</v>
       </c>
       <c r="C305" t="s">
         <v>22</v>
@@ -28248,7 +28257,7 @@
         <v>509998</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>1922</v>
+        <v>1923</v>
       </c>
       <c r="C306" t="s">
         <v>22</v>
@@ -28319,7 +28328,7 @@
         <v>127810</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>1923</v>
+        <v>1924</v>
       </c>
       <c r="C307" t="s">
         <v>22</v>
@@ -28390,7 +28399,7 @@
         <v>177208</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>1924</v>
+        <v>1925</v>
       </c>
       <c r="C308" t="s">
         <v>22</v>
@@ -28461,7 +28470,7 @@
         <v>7136</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>1925</v>
+        <v>1926</v>
       </c>
       <c r="C309" t="s">
         <v>22</v>
@@ -28529,7 +28538,7 @@
         <v>489589</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>1926</v>
+        <v>1927</v>
       </c>
       <c r="C310" t="s">
         <v>22</v>
@@ -28600,7 +28609,7 @@
         <v>805189</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>1927</v>
+        <v>1928</v>
       </c>
       <c r="C311" t="s">
         <v>22</v>
@@ -28671,7 +28680,7 @@
         <v>464399</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>1928</v>
+        <v>1929</v>
       </c>
       <c r="C312" t="s">
         <v>22</v>
@@ -28742,7 +28751,7 @@
         <v>46219</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>1929</v>
+        <v>1930</v>
       </c>
       <c r="C313" t="s">
         <v>22</v>
@@ -28813,7 +28822,7 @@
         <v>65112</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>1930</v>
+        <v>1931</v>
       </c>
       <c r="C314" t="s">
         <v>22</v>
@@ -28884,7 +28893,7 @@
         <v>174834</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>1931</v>
+        <v>1932</v>
       </c>
       <c r="C315" t="s">
         <v>22</v>
@@ -28952,7 +28961,7 @@
         <v>934548</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>1932</v>
+        <v>1933</v>
       </c>
       <c r="C316" t="s">
         <v>22</v>
@@ -29020,7 +29029,7 @@
         <v>556691</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>1933</v>
+        <v>1934</v>
       </c>
       <c r="C317" t="s">
         <v>22</v>
@@ -29091,7 +29100,7 @@
         <v>678937</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>1934</v>
+        <v>1935</v>
       </c>
       <c r="C318" t="s">
         <v>22</v>
@@ -29159,7 +29168,7 @@
         <v>338538</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>1935</v>
+        <v>1936</v>
       </c>
       <c r="C319" t="s">
         <v>22</v>
@@ -29230,7 +29239,7 @@
         <v>814130</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>1936</v>
+        <v>1937</v>
       </c>
       <c r="C320" t="s">
         <v>22</v>
@@ -29301,7 +29310,7 @@
         <v>321244</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>1937</v>
+        <v>1938</v>
       </c>
       <c r="C321" t="s">
         <v>22</v>
@@ -29369,7 +29378,7 @@
         <v>455674</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>1938</v>
+        <v>1939</v>
       </c>
       <c r="C322" t="s">
         <v>22</v>
@@ -29437,7 +29446,7 @@
         <v>476303</v>
       </c>
       <c r="B323" s="2" t="s">
-        <v>1939</v>
+        <v>1940</v>
       </c>
       <c r="C323" t="s">
         <v>22</v>
@@ -29508,7 +29517,7 @@
         <v>854462</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>1940</v>
+        <v>1941</v>
       </c>
       <c r="C324" t="s">
         <v>22</v>
@@ -29579,7 +29588,7 @@
         <v>84765</v>
       </c>
       <c r="B325" s="2" t="s">
-        <v>1941</v>
+        <v>1942</v>
       </c>
       <c r="C325" t="s">
         <v>22</v>
@@ -29650,7 +29659,7 @@
         <v>494969</v>
       </c>
       <c r="B326" s="2" t="s">
-        <v>1942</v>
+        <v>1943</v>
       </c>
       <c r="C326" t="s">
         <v>22</v>
@@ -29721,7 +29730,7 @@
         <v>817274</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>1943</v>
+        <v>1944</v>
       </c>
       <c r="C327" t="s">
         <v>22</v>
@@ -29792,7 +29801,7 @@
         <v>428782</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>1944</v>
+        <v>1945</v>
       </c>
       <c r="C328" t="s">
         <v>22</v>
@@ -29863,7 +29872,7 @@
         <v>255807</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>1945</v>
+        <v>1946</v>
       </c>
       <c r="C329" t="s">
         <v>22</v>
@@ -29934,7 +29943,7 @@
         <v>906756</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>1946</v>
+        <v>1947</v>
       </c>
       <c r="C330" t="s">
         <v>22</v>
@@ -30002,7 +30011,7 @@
         <v>951973</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>1947</v>
+        <v>1948</v>
       </c>
       <c r="C331" t="s">
         <v>22</v>
@@ -30070,7 +30079,7 @@
         <v>498594</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>1948</v>
+        <v>1949</v>
       </c>
       <c r="C332" t="s">
         <v>22</v>
@@ -30138,7 +30147,7 @@
         <v>540183</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>1949</v>
+        <v>1950</v>
       </c>
       <c r="C333" t="s">
         <v>22</v>
@@ -30206,7 +30215,7 @@
         <v>207453</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>1950</v>
+        <v>1951</v>
       </c>
       <c r="C334" t="s">
         <v>22</v>
@@ -30277,7 +30286,7 @@
         <v>656022</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>1951</v>
+        <v>1952</v>
       </c>
       <c r="C335" t="s">
         <v>22</v>
@@ -30348,7 +30357,7 @@
         <v>526785</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>1952</v>
+        <v>1953</v>
       </c>
       <c r="C336" t="s">
         <v>22</v>
@@ -30419,7 +30428,7 @@
         <v>651525</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>1953</v>
+        <v>1954</v>
       </c>
       <c r="C337" t="s">
         <v>22</v>
@@ -30490,7 +30499,7 @@
         <v>18005</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>1954</v>
+        <v>1955</v>
       </c>
       <c r="C338" t="s">
         <v>22</v>
@@ -30558,7 +30567,7 @@
         <v>241495</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>1955</v>
+        <v>1956</v>
       </c>
       <c r="C339" t="s">
         <v>22</v>
@@ -30626,7 +30635,7 @@
         <v>839765</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>1956</v>
+        <v>1957</v>
       </c>
       <c r="C340" t="s">
         <v>22</v>
@@ -30697,7 +30706,7 @@
         <v>356881</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>1957</v>
+        <v>1958</v>
       </c>
       <c r="C341" t="s">
         <v>22</v>
@@ -30768,7 +30777,7 @@
         <v>88582</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>1958</v>
+        <v>1959</v>
       </c>
       <c r="C342" t="s">
         <v>22</v>
@@ -30836,7 +30845,7 @@
         <v>458749</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>1959</v>
+        <v>1960</v>
       </c>
       <c r="C343" t="s">
         <v>22</v>
@@ -30904,7 +30913,7 @@
         <v>352635</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>1960</v>
+        <v>1961</v>
       </c>
       <c r="C344" t="s">
         <v>22</v>
@@ -30972,7 +30981,7 @@
         <v>112963</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>1961</v>
+        <v>1962</v>
       </c>
       <c r="C345" t="s">
         <v>22</v>
@@ -31040,7 +31049,7 @@
         <v>147573</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>1962</v>
+        <v>1963</v>
       </c>
       <c r="C346" t="s">
         <v>22</v>
@@ -31111,7 +31120,7 @@
         <v>57136</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>1963</v>
+        <v>1964</v>
       </c>
       <c r="C347" t="s">
         <v>22</v>
@@ -31182,7 +31191,7 @@
         <v>922403</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>1964</v>
+        <v>1965</v>
       </c>
       <c r="C348" t="s">
         <v>22</v>
@@ -31250,7 +31259,7 @@
         <v>462535</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>1965</v>
+        <v>1966</v>
       </c>
       <c r="C349" t="s">
         <v>22</v>
@@ -31318,7 +31327,7 @@
         <v>15074</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>1966</v>
+        <v>1967</v>
       </c>
       <c r="C350" t="s">
         <v>22</v>
@@ -31386,7 +31395,7 @@
         <v>955876</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>1967</v>
+        <v>1968</v>
       </c>
       <c r="C351" t="s">
         <v>22</v>
@@ -31454,7 +31463,7 @@
         <v>6378</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>1968</v>
+        <v>1969</v>
       </c>
       <c r="C352" t="s">
         <v>22</v>
@@ -31522,7 +31531,7 @@
         <v>630171</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>1969</v>
+        <v>1970</v>
       </c>
       <c r="C353" t="s">
         <v>22</v>
@@ -31590,7 +31599,7 @@
         <v>867701</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>1970</v>
+        <v>1971</v>
       </c>
       <c r="C354" t="s">
         <v>22</v>
@@ -31658,7 +31667,7 @@
         <v>979655</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>1971</v>
+        <v>1972</v>
       </c>
       <c r="C355" t="s">
         <v>22</v>
@@ -31726,7 +31735,7 @@
         <v>427485</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>1972</v>
+        <v>1973</v>
       </c>
       <c r="C356" t="s">
         <v>22</v>
@@ -31794,7 +31803,7 @@
         <v>334136</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>1973</v>
+        <v>1974</v>
       </c>
       <c r="C357" t="s">
         <v>22</v>
@@ -31862,7 +31871,7 @@
         <v>76677</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>1974</v>
+        <v>1975</v>
       </c>
       <c r="C358" t="s">
         <v>22</v>
@@ -31933,7 +31942,7 @@
         <v>189860</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>1975</v>
+        <v>1976</v>
       </c>
       <c r="C359" t="s">
         <v>22</v>
@@ -32001,7 +32010,7 @@
         <v>276813</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>1976</v>
+        <v>1977</v>
       </c>
       <c r="C360" t="s">
         <v>22</v>
@@ -32069,7 +32078,7 @@
         <v>267031</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="C361" t="s">
         <v>22</v>
@@ -32137,7 +32146,7 @@
         <v>994441</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>1978</v>
+        <v>1979</v>
       </c>
       <c r="C362" t="s">
         <v>22</v>
@@ -32205,7 +32214,7 @@
         <v>430685</v>
       </c>
       <c r="B363" s="2" t="s">
-        <v>1979</v>
+        <v>1980</v>
       </c>
       <c r="C363" t="s">
         <v>22</v>
@@ -32276,7 +32285,7 @@
         <v>940387</v>
       </c>
       <c r="B364" s="2" t="s">
-        <v>1980</v>
+        <v>1981</v>
       </c>
       <c r="C364" t="s">
         <v>22</v>
@@ -32347,7 +32356,7 @@
         <v>866281</v>
       </c>
       <c r="B365" s="2" t="s">
-        <v>1981</v>
+        <v>1982</v>
       </c>
       <c r="C365" t="s">
         <v>22</v>
@@ -32418,7 +32427,7 @@
         <v>993739</v>
       </c>
       <c r="B366" s="2" t="s">
-        <v>1982</v>
+        <v>1983</v>
       </c>
       <c r="C366" t="s">
         <v>22</v>
@@ -32486,7 +32495,7 @@
         <v>264355</v>
       </c>
       <c r="B367" s="2" t="s">
-        <v>1983</v>
+        <v>1984</v>
       </c>
       <c r="C367" t="s">
         <v>22</v>
@@ -32557,7 +32566,7 @@
         <v>541835</v>
       </c>
       <c r="B368" s="2" t="s">
-        <v>1984</v>
+        <v>1985</v>
       </c>
       <c r="C368" t="s">
         <v>22</v>
@@ -32628,7 +32637,7 @@
         <v>18973</v>
       </c>
       <c r="B369" s="2" t="s">
-        <v>1985</v>
+        <v>1986</v>
       </c>
       <c r="C369" t="s">
         <v>22</v>
@@ -32696,7 +32705,7 @@
         <v>907446</v>
       </c>
       <c r="B370" s="2" t="s">
-        <v>1986</v>
+        <v>1987</v>
       </c>
       <c r="C370" t="s">
         <v>22</v>
@@ -32767,7 +32776,7 @@
         <v>135776</v>
       </c>
       <c r="B371" s="2" t="s">
-        <v>1987</v>
+        <v>1988</v>
       </c>
       <c r="C371" t="s">
         <v>22</v>
@@ -32838,7 +32847,7 @@
         <v>956153</v>
       </c>
       <c r="B372" s="2" t="s">
-        <v>1988</v>
+        <v>1989</v>
       </c>
       <c r="C372" t="s">
         <v>22</v>
@@ -32909,7 +32918,7 @@
         <v>845456</v>
       </c>
       <c r="B373" s="2" t="s">
-        <v>1989</v>
+        <v>1990</v>
       </c>
       <c r="C373" t="s">
         <v>22</v>
@@ -32977,7 +32986,7 @@
         <v>775823</v>
       </c>
       <c r="B374" s="2" t="s">
-        <v>1990</v>
+        <v>1991</v>
       </c>
       <c r="C374" t="s">
         <v>22</v>
@@ -33048,7 +33057,7 @@
         <v>256305</v>
       </c>
       <c r="B375" s="2" t="s">
-        <v>1991</v>
+        <v>1992</v>
       </c>
       <c r="C375" t="s">
         <v>22</v>
@@ -33116,7 +33125,7 @@
         <v>242659</v>
       </c>
       <c r="B376" s="2" t="s">
-        <v>1992</v>
+        <v>1993</v>
       </c>
       <c r="C376" t="s">
         <v>22</v>
@@ -33187,7 +33196,7 @@
         <v>593949</v>
       </c>
       <c r="B377" s="2" t="s">
-        <v>1993</v>
+        <v>1994</v>
       </c>
       <c r="C377" t="s">
         <v>22</v>
@@ -33255,7 +33264,7 @@
         <v>583956</v>
       </c>
       <c r="B378" s="2" t="s">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="C378" t="s">
         <v>22</v>
@@ -33323,7 +33332,7 @@
         <v>3672</v>
       </c>
       <c r="B379" s="2" t="s">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="C379" t="s">
         <v>22</v>
@@ -33394,7 +33403,7 @@
         <v>471127</v>
       </c>
       <c r="B380" s="2" t="s">
-        <v>1996</v>
+        <v>1997</v>
       </c>
       <c r="C380" t="s">
         <v>22</v>
@@ -33462,7 +33471,7 @@
         <v>305291</v>
       </c>
       <c r="B381" s="2" t="s">
-        <v>1997</v>
+        <v>1998</v>
       </c>
       <c r="C381" t="s">
         <v>22</v>
@@ -33530,7 +33539,7 @@
         <v>245200</v>
       </c>
       <c r="B382" s="2" t="s">
-        <v>1998</v>
+        <v>1999</v>
       </c>
       <c r="C382" t="s">
         <v>22</v>
@@ -33598,7 +33607,7 @@
         <v>963404</v>
       </c>
       <c r="B383" s="2" t="s">
-        <v>1999</v>
+        <v>2000</v>
       </c>
       <c r="C383" t="s">
         <v>22</v>
@@ -33666,7 +33675,7 @@
         <v>930057</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>2000</v>
+        <v>2001</v>
       </c>
       <c r="C384" t="s">
         <v>22</v>
@@ -33734,7 +33743,7 @@
         <v>891311</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="C385" t="s">
         <v>22</v>
@@ -33802,7 +33811,7 @@
         <v>836626</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>2002</v>
+        <v>2003</v>
       </c>
       <c r="C386" t="s">
         <v>22</v>
@@ -33870,7 +33879,7 @@
         <v>549538</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>2003</v>
+        <v>2004</v>
       </c>
       <c r="C387" t="s">
         <v>22</v>
@@ -33938,7 +33947,7 @@
         <v>162927</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>2004</v>
+        <v>2005</v>
       </c>
       <c r="C388" t="s">
         <v>22</v>
@@ -34006,7 +34015,7 @@
         <v>484265</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>2005</v>
+        <v>2006</v>
       </c>
       <c r="C389" t="s">
         <v>22</v>
@@ -34074,7 +34083,7 @@
         <v>225525</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>2006</v>
+        <v>2007</v>
       </c>
       <c r="C390" t="s">
         <v>22</v>
@@ -34145,7 +34154,7 @@
         <v>957074</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>2007</v>
+        <v>2008</v>
       </c>
       <c r="C391" t="s">
         <v>22</v>
@@ -34213,7 +34222,7 @@
         <v>281948</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>2008</v>
+        <v>2009</v>
       </c>
       <c r="C392" t="s">
         <v>22</v>
@@ -34281,7 +34290,7 @@
         <v>968047</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>2009</v>
+        <v>2010</v>
       </c>
       <c r="C393" t="s">
         <v>22</v>
@@ -34349,7 +34358,7 @@
         <v>706633</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>2010</v>
+        <v>2011</v>
       </c>
       <c r="C394" t="s">
         <v>22</v>
@@ -34420,7 +34429,7 @@
         <v>360577</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>2011</v>
+        <v>2012</v>
       </c>
       <c r="C395" t="s">
         <v>22</v>
@@ -34491,7 +34500,7 @@
         <v>967782</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>2012</v>
+        <v>2013</v>
       </c>
       <c r="C396" t="s">
         <v>22</v>
@@ -34559,7 +34568,7 @@
         <v>200447</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>2013</v>
+        <v>2014</v>
       </c>
       <c r="C397" t="s">
         <v>22</v>
@@ -34630,7 +34639,7 @@
         <v>40854</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>2014</v>
+        <v>2015</v>
       </c>
       <c r="C398" t="s">
         <v>22</v>
@@ -34698,7 +34707,7 @@
         <v>323151</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>2015</v>
+        <v>2016</v>
       </c>
       <c r="C399" t="s">
         <v>22</v>
@@ -34769,7 +34778,7 @@
         <v>209156</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>2016</v>
+        <v>2017</v>
       </c>
       <c r="C400" t="s">
         <v>22</v>
@@ -34840,7 +34849,7 @@
         <v>19200</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>2017</v>
+        <v>2018</v>
       </c>
       <c r="C401" t="s">
         <v>22</v>
@@ -34911,7 +34920,7 @@
         <v>893025</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>2018</v>
+        <v>2019</v>
       </c>
       <c r="C402" t="s">
         <v>22</v>
@@ -34979,7 +34988,7 @@
         <v>706693</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>2019</v>
+        <v>2020</v>
       </c>
       <c r="C403" t="s">
         <v>22</v>
@@ -35047,7 +35056,7 @@
         <v>129689</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="C404" t="s">
         <v>22</v>
@@ -35118,7 +35127,7 @@
         <v>292190</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>2021</v>
+        <v>2022</v>
       </c>
       <c r="C405" t="s">
         <v>22</v>
@@ -35189,7 +35198,7 @@
         <v>800236</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>2022</v>
+        <v>2023</v>
       </c>
       <c r="C406" t="s">
         <v>22</v>
@@ -35260,7 +35269,7 @@
         <v>830339</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C407" t="s">
         <v>22</v>
@@ -35328,7 +35337,7 @@
         <v>756144</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C408" t="s">
         <v>22</v>
@@ -35399,7 +35408,7 @@
         <v>513300</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>2025</v>
+        <v>2026</v>
       </c>
       <c r="C409" t="s">
         <v>22</v>
@@ -35467,7 +35476,7 @@
         <v>949974</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>2026</v>
+        <v>2027</v>
       </c>
       <c r="C410" t="s">
         <v>22</v>
@@ -35535,7 +35544,7 @@
         <v>727662</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>2027</v>
+        <v>2028</v>
       </c>
       <c r="C411" t="s">
         <v>22</v>
@@ -35603,7 +35612,7 @@
         <v>348899</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>2028</v>
+        <v>2029</v>
       </c>
       <c r="C412" t="s">
         <v>22</v>
@@ -35671,7 +35680,7 @@
         <v>493340</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>2029</v>
+        <v>2030</v>
       </c>
       <c r="C413" t="s">
         <v>22</v>
@@ -35739,7 +35748,7 @@
         <v>555811</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>2030</v>
+        <v>2031</v>
       </c>
       <c r="C414" t="s">
         <v>22</v>
@@ -35810,7 +35819,7 @@
         <v>25072</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>2031</v>
+        <v>2032</v>
       </c>
       <c r="C415" t="s">
         <v>22</v>
@@ -35878,7 +35887,7 @@
         <v>653774</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>2032</v>
+        <v>2033</v>
       </c>
       <c r="C416" t="s">
         <v>22</v>
@@ -35946,7 +35955,7 @@
         <v>144882</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>2033</v>
+        <v>2034</v>
       </c>
       <c r="C417" t="s">
         <v>22</v>
@@ -36017,7 +36026,7 @@
         <v>312343</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="C418" t="s">
         <v>22</v>
@@ -36085,7 +36094,7 @@
         <v>898937</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>2035</v>
+        <v>2036</v>
       </c>
       <c r="C419" t="s">
         <v>22</v>
@@ -36153,7 +36162,7 @@
         <v>301688</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>2036</v>
+        <v>2037</v>
       </c>
       <c r="C420" t="s">
         <v>22</v>
@@ -36221,7 +36230,7 @@
         <v>61171</v>
       </c>
       <c r="B421" s="2" t="s">
-        <v>2037</v>
+        <v>2038</v>
       </c>
       <c r="C421" t="s">
         <v>22</v>
@@ -36289,7 +36298,7 @@
         <v>895127</v>
       </c>
       <c r="B422" s="2" t="s">
-        <v>2038</v>
+        <v>2039</v>
       </c>
       <c r="C422" t="s">
         <v>22</v>
@@ -36357,7 +36366,7 @@
         <v>299314</v>
       </c>
       <c r="B423" s="2" t="s">
-        <v>2039</v>
+        <v>2040</v>
       </c>
       <c r="C423" t="s">
         <v>22</v>
@@ -36425,7 +36434,7 @@
         <v>486071</v>
       </c>
       <c r="B424" s="2" t="s">
-        <v>2040</v>
+        <v>2041</v>
       </c>
       <c r="C424" t="s">
         <v>22</v>
@@ -36493,7 +36502,7 @@
         <v>246705</v>
       </c>
       <c r="B425" s="2" t="s">
-        <v>2041</v>
+        <v>2042</v>
       </c>
       <c r="C425" t="s">
         <v>22</v>
@@ -36564,7 +36573,7 @@
         <v>249333</v>
       </c>
       <c r="B426" s="2" t="s">
-        <v>2042</v>
+        <v>2043</v>
       </c>
       <c r="C426" t="s">
         <v>22</v>
@@ -36635,7 +36644,7 @@
         <v>85894</v>
       </c>
       <c r="B427" s="2" t="s">
-        <v>2043</v>
+        <v>2044</v>
       </c>
       <c r="C427" t="s">
         <v>22</v>
@@ -36703,7 +36712,7 @@
         <v>287009</v>
       </c>
       <c r="B428" s="2" t="s">
-        <v>2044</v>
+        <v>2045</v>
       </c>
       <c r="C428" t="s">
         <v>22</v>
@@ -36774,7 +36783,7 @@
         <v>391603</v>
       </c>
       <c r="B429" s="2" t="s">
-        <v>2045</v>
+        <v>2046</v>
       </c>
       <c r="C429" t="s">
         <v>22</v>
@@ -36845,7 +36854,7 @@
         <v>902130</v>
       </c>
       <c r="B430" s="2" t="s">
-        <v>2046</v>
+        <v>2047</v>
       </c>
       <c r="C430" t="s">
         <v>22</v>
@@ -36916,7 +36925,7 @@
         <v>487526</v>
       </c>
       <c r="B431" s="2" t="s">
-        <v>2047</v>
+        <v>2048</v>
       </c>
       <c r="C431" t="s">
         <v>22</v>
@@ -36984,7 +36993,7 @@
         <v>420374</v>
       </c>
       <c r="B432" s="2" t="s">
-        <v>2048</v>
+        <v>2049</v>
       </c>
       <c r="C432" t="s">
         <v>22</v>
@@ -37052,7 +37061,7 @@
         <v>455387</v>
       </c>
       <c r="B433" s="2" t="s">
-        <v>2049</v>
+        <v>2050</v>
       </c>
       <c r="C433" t="s">
         <v>22</v>
@@ -37123,7 +37132,7 @@
         <v>222838</v>
       </c>
       <c r="B434" s="2" t="s">
-        <v>2050</v>
+        <v>2051</v>
       </c>
       <c r="C434" t="s">
         <v>22</v>
@@ -37191,7 +37200,7 @@
         <v>680503</v>
       </c>
       <c r="B435" s="2" t="s">
-        <v>2051</v>
+        <v>2052</v>
       </c>
       <c r="C435" t="s">
         <v>22</v>
@@ -37259,7 +37268,7 @@
         <v>693119</v>
       </c>
       <c r="B436" s="2" t="s">
-        <v>2052</v>
+        <v>2053</v>
       </c>
       <c r="C436" t="s">
         <v>22</v>
@@ -37330,7 +37339,7 @@
         <v>2908</v>
       </c>
       <c r="B437" s="2" t="s">
-        <v>2053</v>
+        <v>2054</v>
       </c>
       <c r="C437" t="s">
         <v>22</v>
@@ -37401,7 +37410,7 @@
         <v>987198</v>
       </c>
       <c r="B438" s="2" t="s">
-        <v>2054</v>
+        <v>2055</v>
       </c>
       <c r="C438" t="s">
         <v>22</v>
@@ -37472,7 +37481,7 @@
         <v>310410</v>
       </c>
       <c r="B439" s="2" t="s">
-        <v>2055</v>
+        <v>2056</v>
       </c>
       <c r="C439" t="s">
         <v>22</v>
@@ -37540,7 +37549,7 @@
         <v>305856</v>
       </c>
       <c r="B440" s="2" t="s">
-        <v>2056</v>
+        <v>2057</v>
       </c>
       <c r="C440" t="s">
         <v>22</v>
@@ -37608,7 +37617,7 @@
         <v>46515</v>
       </c>
       <c r="B441" s="2" t="s">
-        <v>2057</v>
+        <v>2058</v>
       </c>
       <c r="C441" t="s">
         <v>22</v>
@@ -37676,7 +37685,7 @@
         <v>683997</v>
       </c>
       <c r="B442" s="2" t="s">
-        <v>2058</v>
+        <v>2059</v>
       </c>
       <c r="C442" t="s">
         <v>22</v>
@@ -37747,7 +37756,7 @@
         <v>198479</v>
       </c>
       <c r="B443" s="2" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="C443" t="s">
         <v>22</v>
@@ -37818,7 +37827,7 @@
         <v>70579</v>
       </c>
       <c r="B444" s="2" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="C444" t="s">
         <v>22</v>
@@ -37889,7 +37898,7 @@
         <v>339248</v>
       </c>
       <c r="B445" s="2" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="C445" t="s">
         <v>22</v>
@@ -37960,7 +37969,7 @@
         <v>607074</v>
       </c>
       <c r="B446" s="2" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="C446" t="s">
         <v>22</v>
@@ -38028,7 +38037,7 @@
         <v>774241</v>
       </c>
       <c r="B447" s="2" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="C447" t="s">
         <v>22</v>
@@ -38096,7 +38105,7 @@
         <v>325951</v>
       </c>
       <c r="B448" s="2" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="C448" t="s">
         <v>22</v>
@@ -38164,7 +38173,7 @@
         <v>439844</v>
       </c>
       <c r="B449" s="2" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="C449" t="s">
         <v>22</v>
@@ -38235,7 +38244,7 @@
         <v>675799</v>
       </c>
       <c r="B450" s="2" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="C450" t="s">
         <v>22</v>
@@ -38303,7 +38312,7 @@
         <v>287479</v>
       </c>
       <c r="B451" s="2" t="s">
-        <v>2067</v>
+        <v>2068</v>
       </c>
       <c r="C451" t="s">
         <v>22</v>
@@ -38374,7 +38383,7 @@
         <v>939751</v>
       </c>
       <c r="B452" s="2" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="C452" t="s">
         <v>22</v>
@@ -38442,7 +38451,7 @@
         <v>221050</v>
       </c>
       <c r="B453" s="2" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="C453" t="s">
         <v>22</v>
@@ -38510,7 +38519,7 @@
         <v>675470</v>
       </c>
       <c r="B454" s="2" t="s">
-        <v>2070</v>
+        <v>2071</v>
       </c>
       <c r="C454" t="s">
         <v>22</v>
@@ -38578,7 +38587,7 @@
         <v>18397</v>
       </c>
       <c r="B455" s="2" t="s">
-        <v>2071</v>
+        <v>2072</v>
       </c>
       <c r="C455" t="s">
         <v>22</v>
@@ -38649,7 +38658,7 @@
         <v>26773</v>
       </c>
       <c r="B456" s="2" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="C456" t="s">
         <v>22</v>
@@ -38720,7 +38729,7 @@
         <v>590629</v>
       </c>
       <c r="B457" s="2" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="C457" t="s">
         <v>22</v>
@@ -38791,7 +38800,7 @@
         <v>809698</v>
       </c>
       <c r="B458" s="2" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="C458" t="s">
         <v>22</v>
@@ -38859,7 +38868,7 @@
         <v>744550</v>
       </c>
       <c r="B459" s="2" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="C459" t="s">
         <v>22</v>
@@ -38927,7 +38936,7 @@
         <v>633448</v>
       </c>
       <c r="B460" s="2" t="s">
-        <v>2076</v>
+        <v>2077</v>
       </c>
       <c r="C460" t="s">
         <v>22</v>
@@ -38995,7 +39004,7 @@
         <v>485302</v>
       </c>
       <c r="B461" s="2" t="s">
-        <v>2077</v>
+        <v>2078</v>
       </c>
       <c r="C461" t="s">
         <v>22</v>
@@ -39066,7 +39075,7 @@
         <v>421434</v>
       </c>
       <c r="B462" s="2" t="s">
-        <v>2078</v>
+        <v>2079</v>
       </c>
       <c r="C462" t="s">
         <v>22</v>
@@ -39137,7 +39146,7 @@
         <v>746783</v>
       </c>
       <c r="B463" s="2" t="s">
-        <v>2079</v>
+        <v>2080</v>
       </c>
       <c r="C463" t="s">
         <v>22</v>
@@ -39208,7 +39217,7 @@
         <v>924430</v>
       </c>
       <c r="B464" s="2" t="s">
-        <v>2080</v>
+        <v>2081</v>
       </c>
       <c r="C464" t="s">
         <v>22</v>
@@ -39276,7 +39285,7 @@
         <v>613537</v>
       </c>
       <c r="B465" s="2" t="s">
-        <v>2081</v>
+        <v>2082</v>
       </c>
       <c r="C465" t="s">
         <v>22</v>
@@ -39344,7 +39353,7 @@
         <v>720616</v>
       </c>
       <c r="B466" s="2" t="s">
-        <v>2082</v>
+        <v>2083</v>
       </c>
       <c r="C466" t="s">
         <v>22</v>
@@ -39412,7 +39421,7 @@
         <v>90016</v>
       </c>
       <c r="B467" s="2" t="s">
-        <v>2083</v>
+        <v>2084</v>
       </c>
       <c r="C467" t="s">
         <v>22</v>
@@ -39480,7 +39489,7 @@
         <v>140149</v>
       </c>
       <c r="B468" s="2" t="s">
-        <v>2084</v>
+        <v>2085</v>
       </c>
       <c r="C468" t="s">
         <v>22</v>
@@ -39551,7 +39560,7 @@
         <v>435470</v>
       </c>
       <c r="B469" s="2" t="s">
-        <v>2085</v>
+        <v>2086</v>
       </c>
       <c r="C469" t="s">
         <v>22</v>
@@ -39622,7 +39631,7 @@
         <v>358048</v>
       </c>
       <c r="B470" s="2" t="s">
-        <v>2086</v>
+        <v>2087</v>
       </c>
       <c r="C470" t="s">
         <v>22</v>
@@ -39693,7 +39702,7 @@
         <v>742007</v>
       </c>
       <c r="B471" s="2" t="s">
-        <v>2087</v>
+        <v>2088</v>
       </c>
       <c r="C471" t="s">
         <v>22</v>
@@ -39761,7 +39770,7 @@
         <v>365428</v>
       </c>
       <c r="B472" s="2" t="s">
-        <v>2088</v>
+        <v>2089</v>
       </c>
       <c r="C472" t="s">
         <v>22</v>
@@ -39829,7 +39838,7 @@
         <v>902187</v>
       </c>
       <c r="B473" s="2" t="s">
-        <v>2089</v>
+        <v>2090</v>
       </c>
       <c r="C473" t="s">
         <v>22</v>
@@ -39897,7 +39906,7 @@
         <v>998535</v>
       </c>
       <c r="B474" s="2" t="s">
-        <v>2090</v>
+        <v>2091</v>
       </c>
       <c r="C474" t="s">
         <v>22</v>
@@ -39965,7 +39974,7 @@
         <v>358176</v>
       </c>
       <c r="B475" s="2" t="s">
-        <v>2091</v>
+        <v>2092</v>
       </c>
       <c r="C475" t="s">
         <v>22</v>
@@ -40036,7 +40045,7 @@
         <v>386341</v>
       </c>
       <c r="B476" s="2" t="s">
-        <v>2092</v>
+        <v>2093</v>
       </c>
       <c r="C476" t="s">
         <v>22</v>
@@ -40104,7 +40113,7 @@
         <v>18211</v>
       </c>
       <c r="B477" s="2" t="s">
-        <v>2093</v>
+        <v>2094</v>
       </c>
       <c r="C477" t="s">
         <v>22</v>
@@ -40172,7 +40181,7 @@
         <v>809539</v>
       </c>
       <c r="B478" s="2" t="s">
-        <v>2094</v>
+        <v>2095</v>
       </c>
       <c r="C478" t="s">
         <v>22</v>
@@ -40240,7 +40249,7 @@
         <v>399077</v>
       </c>
       <c r="B479" s="2" t="s">
-        <v>2095</v>
+        <v>2096</v>
       </c>
       <c r="C479" t="s">
         <v>22</v>
@@ -40308,7 +40317,7 @@
         <v>389947</v>
       </c>
       <c r="B480" s="2" t="s">
-        <v>2096</v>
+        <v>2097</v>
       </c>
       <c r="C480" t="s">
         <v>22</v>
@@ -40376,7 +40385,7 @@
         <v>434382</v>
       </c>
       <c r="B481" s="2" t="s">
-        <v>2097</v>
+        <v>2098</v>
       </c>
       <c r="C481" t="s">
         <v>22</v>
@@ -40447,7 +40456,7 @@
         <v>352071</v>
       </c>
       <c r="B482" s="2" t="s">
-        <v>2098</v>
+        <v>2099</v>
       </c>
       <c r="C482" t="s">
         <v>22</v>
@@ -40518,7 +40527,7 @@
         <v>881217</v>
       </c>
       <c r="B483" s="2" t="s">
-        <v>2099</v>
+        <v>2100</v>
       </c>
       <c r="C483" t="s">
         <v>22</v>
@@ -40589,7 +40598,7 @@
         <v>597380</v>
       </c>
       <c r="B484" s="2" t="s">
-        <v>2100</v>
+        <v>2101</v>
       </c>
       <c r="C484" t="s">
         <v>22</v>
@@ -40660,7 +40669,7 @@
         <v>919081</v>
       </c>
       <c r="B485" s="2" t="s">
-        <v>2101</v>
+        <v>2102</v>
       </c>
       <c r="C485" t="s">
         <v>22</v>
@@ -40731,7 +40740,7 @@
         <v>963497</v>
       </c>
       <c r="B486" s="2" t="s">
-        <v>2102</v>
+        <v>2103</v>
       </c>
       <c r="C486" t="s">
         <v>22</v>
@@ -40802,7 +40811,7 @@
         <v>995590</v>
       </c>
       <c r="B487" s="2" t="s">
-        <v>2103</v>
+        <v>2104</v>
       </c>
       <c r="C487" t="s">
         <v>22</v>
@@ -40873,7 +40882,7 @@
         <v>882770</v>
       </c>
       <c r="B488" s="2" t="s">
-        <v>2104</v>
+        <v>2105</v>
       </c>
       <c r="C488" t="s">
         <v>22</v>
@@ -40944,7 +40953,7 @@
         <v>481476</v>
       </c>
       <c r="B489" s="2" t="s">
-        <v>1987</v>
+        <v>2106</v>
       </c>
       <c r="C489" t="s">
         <v>22</v>
@@ -41015,7 +41024,7 @@
         <v>533255</v>
       </c>
       <c r="B490" s="2" t="s">
-        <v>2105</v>
+        <v>2107</v>
       </c>
       <c r="C490" t="s">
         <v>22</v>
@@ -41086,7 +41095,7 @@
         <v>929775</v>
       </c>
       <c r="B491" s="2" t="s">
-        <v>2106</v>
+        <v>2108</v>
       </c>
       <c r="C491" t="s">
         <v>22</v>
@@ -41157,7 +41166,7 @@
         <v>808611</v>
       </c>
       <c r="B492" s="2" t="s">
-        <v>2107</v>
+        <v>2109</v>
       </c>
       <c r="C492" t="s">
         <v>22</v>
@@ -41228,7 +41237,7 @@
         <v>569693</v>
       </c>
       <c r="B493" s="2" t="s">
-        <v>2108</v>
+        <v>2110</v>
       </c>
       <c r="C493" t="s">
         <v>22</v>
@@ -41299,7 +41308,7 @@
         <v>885988</v>
       </c>
       <c r="B494" s="2" t="s">
-        <v>2109</v>
+        <v>2111</v>
       </c>
       <c r="C494" t="s">
         <v>22</v>
@@ -41370,7 +41379,7 @@
         <v>851797</v>
       </c>
       <c r="B495" s="2" t="s">
-        <v>2110</v>
+        <v>2112</v>
       </c>
       <c r="C495" t="s">
         <v>22</v>
@@ -41441,7 +41450,7 @@
         <v>556308</v>
       </c>
       <c r="B496" s="2" t="s">
-        <v>2111</v>
+        <v>2113</v>
       </c>
       <c r="C496" t="s">
         <v>22</v>
@@ -41512,7 +41521,7 @@
         <v>392122</v>
       </c>
       <c r="B497" s="2" t="s">
-        <v>2112</v>
+        <v>2114</v>
       </c>
       <c r="C497" t="s">
         <v>22</v>
@@ -41583,7 +41592,7 @@
         <v>218253</v>
       </c>
       <c r="B498" s="2" t="s">
-        <v>2113</v>
+        <v>2115</v>
       </c>
       <c r="C498" t="s">
         <v>22</v>
@@ -41654,7 +41663,7 @@
         <v>945680</v>
       </c>
       <c r="B499" s="2" t="s">
-        <v>2114</v>
+        <v>2116</v>
       </c>
       <c r="C499" t="s">
         <v>22</v>
@@ -41725,7 +41734,7 @@
         <v>39324</v>
       </c>
       <c r="B500" s="2" t="s">
-        <v>2115</v>
+        <v>2117</v>
       </c>
       <c r="C500" t="s">
         <v>22</v>
@@ -41796,7 +41805,7 @@
         <v>334171</v>
       </c>
       <c r="B501" s="2" t="s">
-        <v>2116</v>
+        <v>2118</v>
       </c>
       <c r="C501" t="s">
         <v>22</v>
@@ -41867,7 +41876,7 @@
         <v>553376</v>
       </c>
       <c r="B502" s="2" t="s">
-        <v>2117</v>
+        <v>2119</v>
       </c>
       <c r="C502" t="s">
         <v>22</v>
@@ -41938,7 +41947,7 @@
         <v>262537</v>
       </c>
       <c r="B503" s="2" t="s">
-        <v>2118</v>
+        <v>2120</v>
       </c>
       <c r="C503" t="s">
         <v>22</v>
@@ -42009,7 +42018,7 @@
         <v>642404</v>
       </c>
       <c r="B504" s="2" t="s">
-        <v>2119</v>
+        <v>2121</v>
       </c>
       <c r="C504" t="s">
         <v>22</v>
@@ -42080,7 +42089,7 @@
         <v>214882</v>
       </c>
       <c r="B505" s="2" t="s">
-        <v>2120</v>
+        <v>2122</v>
       </c>
       <c r="C505" t="s">
         <v>22</v>
@@ -42151,7 +42160,7 @@
         <v>365401</v>
       </c>
       <c r="B506" s="2" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="C506" t="s">
         <v>22</v>
@@ -42222,7 +42231,7 @@
         <v>899457</v>
       </c>
       <c r="B507" s="2" t="s">
-        <v>2122</v>
+        <v>2124</v>
       </c>
       <c r="C507" t="s">
         <v>22</v>
@@ -42293,7 +42302,7 @@
         <v>852808</v>
       </c>
       <c r="B508" s="2" t="s">
-        <v>2123</v>
+        <v>2125</v>
       </c>
       <c r="C508" t="s">
         <v>22</v>
@@ -42364,7 +42373,7 @@
         <v>354707</v>
       </c>
       <c r="B509" s="2" t="s">
-        <v>2124</v>
+        <v>2126</v>
       </c>
       <c r="C509" t="s">
         <v>22</v>
@@ -42435,7 +42444,7 @@
         <v>171316</v>
       </c>
       <c r="B510" s="2" t="s">
-        <v>2125</v>
+        <v>2127</v>
       </c>
       <c r="C510" t="s">
         <v>22</v>
@@ -42506,7 +42515,7 @@
         <v>140890</v>
       </c>
       <c r="B511" s="2" t="s">
-        <v>2126</v>
+        <v>2128</v>
       </c>
       <c r="C511" t="s">
         <v>22</v>
@@ -42577,7 +42586,7 @@
         <v>236321</v>
       </c>
       <c r="B512" s="2" t="s">
-        <v>2127</v>
+        <v>2129</v>
       </c>
       <c r="C512" t="s">
         <v>22</v>
@@ -42648,7 +42657,7 @@
         <v>101125</v>
       </c>
       <c r="B513" s="2" t="s">
-        <v>1882</v>
+        <v>2130</v>
       </c>
       <c r="C513" t="s">
         <v>22</v>

--- a/seed/tests/data/portfolio-manager-sample.xlsx
+++ b/seed/tests/data/portfolio-manager-sample.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="29005"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nlong/working/seed/seed/tests/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76C55047-44DD-4746-BC58-B4ADB1102203}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17460" tabRatio="141"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="28800" windowHeight="17460" tabRatio="141" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -4886,7 +4887,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -4919,13 +4920,16 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -5252,14 +5256,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <tabColor rgb="FFFFFFFF"/>
   </sheetPr>
   <dimension ref="A1:V513"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A474" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
-      <selection activeCell="D477" sqref="D477"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="125" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -5334,7 +5338,7 @@
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A2">
-        <v>499045</v>
+        <v>5766973</v>
       </c>
       <c r="B2" t="s">
         <v>22</v>
@@ -5402,7 +5406,7 @@
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.15">
       <c r="A3">
-        <v>596705</v>
+        <v>5766975</v>
       </c>
       <c r="B3" t="s">
         <v>22</v>
